--- a/ExternProject/_EXE/DataToBinary/DataTable/Config_OC_数据表.xlsx
+++ b/ExternProject/_EXE/DataToBinary/DataTable/Config_OC_数据表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projectoc\ExternProject\_EXE\DataToBinary\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFB8A06-0643-4530-A8D0-2447E41C4B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF81F81-3A8E-43F6-A994-7EC5BBE1EC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="837" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="837" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalog_目录" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4740" uniqueCount="2390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4818" uniqueCount="2450">
   <si>
     <t>Config目录</t>
   </si>
@@ -7307,20 +7307,917 @@
   <si>
     <t>Item_Material_1,7;Item_Material_37,7</t>
   </si>
+  <si>
+    <t>Build</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeRaw</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build_ProNode_3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>升级得到的建筑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级需要的材料</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build_ProNode_6</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Build_ProNode_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Build_ProNode_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Build_ProNode_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Build_ProNode_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Build_ProNode_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Build_ProNode_19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Build_ProNode_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Build_ProNode_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Build_ProNode_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Build_ProNode_25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Build_ProNode_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Build_ProNode_28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Build_ProNode_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Build_ProNode_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Build_ProNode_32</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Build_ProNode_3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Build_ProNode_34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildUpgrade_1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>26</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>34</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuildUpgrade_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7393,6 +8290,47 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="思源黑体 Bold"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -7526,82 +8464,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7609,50 +8544,65 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7973,15 +8923,15 @@
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25">
+    <row r="1" spans="1:4" ht="20.399999999999999">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -8147,7 +9097,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" location="ProNodes_生产节点!A1" display="GO" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A4" location="Recipe_配方!A1" display="GO" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -8176,18 +9126,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="0.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="0.88671875" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25">
+    <row r="1" spans="1:9" ht="20.399999999999999">
       <c r="A1" s="35" t="s">
         <v>21</v>
       </c>
@@ -8495,7 +9445,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I1" location="Catalog_目录!A1" display="Back" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
@@ -8515,18 +9465,18 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="0.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="0.88671875" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25">
+    <row r="1" spans="1:10" ht="20.399999999999999">
       <c r="A1" s="35" t="s">
         <v>2364</v>
       </c>
@@ -8693,7 +9643,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J1" location="Catalog_目录!A1" display="Back" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
@@ -8712,17 +9662,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="0.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="3"/>
+    <col min="3" max="3" width="37.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="0.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25">
+    <row r="1" spans="1:7" ht="20.399999999999999">
       <c r="A1" s="35" t="s">
         <v>27</v>
       </c>
@@ -8894,7 +9844,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G1" location="Catalog_目录!A1" display="Back" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
@@ -8913,21 +9863,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="0.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="0.88671875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25">
+    <row r="1" spans="1:12" ht="20.399999999999999">
       <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
@@ -10878,7 +11828,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C15:C17" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Auto,Mannul"</formula1>
@@ -10902,15 +11852,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="0.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="0.88671875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25">
+    <row r="1" spans="1:6" ht="20.399999999999999">
       <c r="A1" s="32" t="s">
         <v>30</v>
       </c>
@@ -11459,7 +12409,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F1" location="Catalog_目录!A1" display="Back" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
@@ -11476,28 +12426,28 @@
       <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="33.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="33.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="24.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.77734375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="33.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" style="3" customWidth="1"/>
     <col min="12" max="12" width="9" style="3" customWidth="1"/>
-    <col min="13" max="13" width="23.25" style="3" customWidth="1"/>
-    <col min="14" max="14" width="26.375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="22.75" style="3" customWidth="1"/>
-    <col min="16" max="16" width="0.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="23.21875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="22.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="0.88671875" style="3" customWidth="1"/>
     <col min="17" max="16383" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.25">
+    <row r="1" spans="1:17" ht="20.399999999999999">
       <c r="A1" s="35" t="s">
         <v>24</v>
       </c>
@@ -11689,7 +12639,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" ht="24">
       <c r="A6" s="6" t="s">
         <v>234</v>
       </c>
@@ -11728,7 +12678,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" ht="24">
       <c r="A7" s="6" t="s">
         <v>241</v>
       </c>
@@ -11771,7 +12721,7 @@
       </c>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:17" ht="24">
+    <row r="8" spans="1:17" ht="36">
       <c r="A8" s="6" t="s">
         <v>250</v>
       </c>
@@ -11814,7 +12764,7 @@
       </c>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" ht="24">
       <c r="A9" s="6" t="s">
         <v>258</v>
       </c>
@@ -11974,7 +12924,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" ht="24">
       <c r="A13" s="23" t="s">
         <v>282</v>
       </c>
@@ -12050,7 +13000,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" ht="24">
       <c r="A15" s="23" t="s">
         <v>294</v>
       </c>
@@ -12093,7 +13043,7 @@
       </c>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" ht="24">
       <c r="A16" s="23" t="s">
         <v>302</v>
       </c>
@@ -12257,7 +13207,7 @@
       </c>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="24">
       <c r="A20" s="6" t="s">
         <v>328</v>
       </c>
@@ -12454,7 +13404,7 @@
       <c r="N24" s="8"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="24">
       <c r="A25" s="6" t="s">
         <v>358</v>
       </c>
@@ -12491,7 +13441,7 @@
       <c r="N25" s="8"/>
       <c r="O25" s="6"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="24">
       <c r="A26" s="6" t="s">
         <v>364</v>
       </c>
@@ -12528,7 +13478,7 @@
       <c r="N26" s="8"/>
       <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="24">
       <c r="A27" s="6" t="s">
         <v>370</v>
       </c>
@@ -12565,7 +13515,7 @@
       <c r="N27" s="8"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" ht="24">
       <c r="A28" s="6" t="s">
         <v>376</v>
       </c>
@@ -12602,7 +13552,7 @@
       <c r="N28" s="8"/>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="24">
       <c r="A29" s="6" t="s">
         <v>382</v>
       </c>
@@ -12639,7 +13589,7 @@
       <c r="N29" s="8"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="24">
       <c r="A30" s="6" t="s">
         <v>388</v>
       </c>
@@ -12676,7 +13626,7 @@
       <c r="N30" s="8"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" ht="24">
       <c r="A31" s="6" t="s">
         <v>394</v>
       </c>
@@ -12713,7 +13663,7 @@
       <c r="N31" s="8"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="24">
       <c r="A32" s="6" t="s">
         <v>400</v>
       </c>
@@ -13505,7 +14455,7 @@
       <c r="N51" s="8"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" ht="24">
       <c r="A52" s="23" t="s">
         <v>517</v>
       </c>
@@ -14233,7 +15183,7 @@
       <c r="N69" s="8"/>
       <c r="O69" s="6"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" ht="24">
       <c r="A70" s="6" t="s">
         <v>630</v>
       </c>
@@ -15271,7 +16221,7 @@
       </c>
       <c r="O95" s="6"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" ht="24">
       <c r="A96" s="24" t="s">
         <v>773</v>
       </c>
@@ -15310,7 +16260,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" ht="24">
       <c r="A97" s="24" t="s">
         <v>778</v>
       </c>
@@ -15712,7 +16662,7 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="M3:N3"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G56 G57 G69 G70 G84 G93 G5:G6 G53:G55 G58:G60 G61:G64 G65:G68 G71:G83 G85:G92 G94:G97" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13 B57 B5:B12 B14:B16 B17:B27 B28:B32 B33:B45 B46:B51 B52:B54 B55:B56 B58:B60 B61:B69 B70:B83 B84:B92 B93:B97" xr:uid="{00000000-0002-0000-0300-000001000000}">
@@ -15731,32 +16681,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L314"/>
+  <dimension ref="A1:N314"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="30.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="26" customWidth="1"/>
-    <col min="8" max="8" width="24.375" style="26" customWidth="1"/>
-    <col min="9" max="9" width="32.75" style="26" customWidth="1"/>
-    <col min="10" max="10" width="17.375" style="26" customWidth="1"/>
-    <col min="11" max="11" width="0.875" style="26" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="26"/>
+    <col min="1" max="1" width="30.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="32.77734375" style="26" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="26" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" style="26" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="26" customWidth="1"/>
+    <col min="13" max="13" width="0.88671875" style="26" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25">
+    <row r="1" spans="1:14" ht="20.399999999999999">
       <c r="A1" s="35" t="s">
-        <v>12</v>
+        <v>2390</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -15767,11 +16719,13 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="N1" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -15799,11 +16753,17 @@
       <c r="I2" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="41" t="s">
+        <v>2391</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>2392</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" s="5" t="s">
         <v>47</v>
       </c>
@@ -15831,11 +16791,17 @@
       <c r="I3" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="43" t="s">
+        <v>2394</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>2395</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
@@ -15861,11 +16827,17 @@
       <c r="I4" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="44" t="s">
+        <v>2396</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>2396</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="A5" s="6" t="s">
         <v>287</v>
       </c>
@@ -15893,9 +16865,11 @@
       <c r="I5" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="24">
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="24">
       <c r="A6" s="6" t="s">
         <v>315</v>
       </c>
@@ -15923,11 +16897,17 @@
       <c r="I6" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" ht="36">
+      <c r="J6" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>2419</v>
+      </c>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="36">
       <c r="A7" s="6" t="s">
-        <v>320</v>
+        <v>2393</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>68</v>
@@ -15953,9 +16933,15 @@
       <c r="I7" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" ht="48">
+      <c r="J7" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>1635</v>
+      </c>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="48">
       <c r="A8" s="6" t="s">
         <v>326</v>
       </c>
@@ -15983,9 +16969,11 @@
       <c r="I8" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" ht="24">
+      <c r="J8" s="42"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="24">
       <c r="A9" s="6" t="s">
         <v>333</v>
       </c>
@@ -16013,11 +17001,17 @@
       <c r="I9" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="36">
+      <c r="J9" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>2415</v>
+      </c>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="36">
       <c r="A10" s="6" t="s">
-        <v>338</v>
+        <v>2397</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>125</v>
@@ -16043,9 +17037,15 @@
       <c r="I10" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" ht="48">
+      <c r="J10" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>2416</v>
+      </c>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="60">
       <c r="A11" s="6" t="s">
         <v>344</v>
       </c>
@@ -16073,9 +17073,11 @@
       <c r="I11" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" ht="24">
+      <c r="J11" s="42"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="24">
       <c r="A12" s="6" t="s">
         <v>411</v>
       </c>
@@ -16103,9 +17105,15 @@
       <c r="I12" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="36">
+      <c r="J12" s="42" t="s">
+        <v>2398</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>2417</v>
+      </c>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="36">
       <c r="A13" s="6" t="s">
         <v>416</v>
       </c>
@@ -16133,9 +17141,15 @@
       <c r="I13" s="8" t="s">
         <v>812</v>
       </c>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="60">
+      <c r="J13" s="42" t="s">
+        <v>2399</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>2418</v>
+      </c>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="60">
       <c r="A14" s="6" t="s">
         <v>422</v>
       </c>
@@ -16163,9 +17177,11 @@
       <c r="I14" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="J14" s="42"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
         <v>429</v>
       </c>
@@ -16193,9 +17209,15 @@
       <c r="I15" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" ht="24">
+      <c r="J15" s="42" t="s">
+        <v>2400</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>2420</v>
+      </c>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" ht="24">
       <c r="A16" s="6" t="s">
         <v>434</v>
       </c>
@@ -16223,9 +17245,15 @@
       <c r="I16" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="48">
+      <c r="J16" s="42" t="s">
+        <v>2401</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>2421</v>
+      </c>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="60">
       <c r="A17" s="6" t="s">
         <v>440</v>
       </c>
@@ -16253,9 +17281,11 @@
       <c r="I17" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="24">
+      <c r="J17" s="42"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="24">
       <c r="A18" s="6" t="s">
         <v>821</v>
       </c>
@@ -16283,9 +17313,15 @@
       <c r="I18" s="8" t="s">
         <v>823</v>
       </c>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="36">
+      <c r="J18" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>2422</v>
+      </c>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="36">
       <c r="A19" s="6" t="s">
         <v>824</v>
       </c>
@@ -16313,9 +17349,15 @@
       <c r="I19" s="8" t="s">
         <v>826</v>
       </c>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="48">
+      <c r="J19" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>2423</v>
+      </c>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="60">
       <c r="A20" s="6" t="s">
         <v>827</v>
       </c>
@@ -16343,9 +17385,11 @@
       <c r="I20" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" ht="24">
+      <c r="J20" s="42"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="24">
       <c r="A21" s="6" t="s">
         <v>830</v>
       </c>
@@ -16373,9 +17417,15 @@
       <c r="I21" s="8" t="s">
         <v>832</v>
       </c>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" ht="36">
+      <c r="J21" s="9" t="s">
+        <v>2402</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>2424</v>
+      </c>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="36">
       <c r="A22" s="6" t="s">
         <v>833</v>
       </c>
@@ -16403,9 +17453,15 @@
       <c r="I22" s="8" t="s">
         <v>835</v>
       </c>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" ht="48">
+      <c r="J22" s="9" t="s">
+        <v>2403</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>2425</v>
+      </c>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="60">
       <c r="A23" s="6" t="s">
         <v>836</v>
       </c>
@@ -16433,9 +17489,11 @@
       <c r="I23" s="8" t="s">
         <v>838</v>
       </c>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" ht="24">
+      <c r="J23" s="42"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" ht="24">
       <c r="A24" s="6" t="s">
         <v>759</v>
       </c>
@@ -16463,9 +17521,15 @@
       <c r="I24" s="8" t="s">
         <v>840</v>
       </c>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" ht="36">
+      <c r="J24" s="9" t="s">
+        <v>2404</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" ht="36">
       <c r="A25" s="6" t="s">
         <v>765</v>
       </c>
@@ -16493,9 +17557,15 @@
       <c r="I25" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" ht="48">
+      <c r="J25" s="9" t="s">
+        <v>2405</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>2427</v>
+      </c>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" ht="48">
       <c r="A26" s="6" t="s">
         <v>771</v>
       </c>
@@ -16523,9 +17593,11 @@
       <c r="I26" s="8" t="s">
         <v>844</v>
       </c>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" ht="24">
+      <c r="J26" s="42"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" ht="24">
       <c r="A27" s="6" t="s">
         <v>636</v>
       </c>
@@ -16553,9 +17625,15 @@
       <c r="I27" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" ht="36">
+      <c r="J27" s="9" t="s">
+        <v>2406</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>2428</v>
+      </c>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" ht="36">
       <c r="A28" s="6" t="s">
         <v>641</v>
       </c>
@@ -16583,9 +17661,15 @@
       <c r="I28" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" ht="48">
+      <c r="J28" s="9" t="s">
+        <v>2407</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>2429</v>
+      </c>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" ht="60">
       <c r="A29" s="6" t="s">
         <v>647</v>
       </c>
@@ -16613,9 +17697,11 @@
       <c r="I29" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" ht="36">
+      <c r="J29" s="42"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" ht="36">
       <c r="A30" s="6" t="s">
         <v>293</v>
       </c>
@@ -16643,11 +17729,17 @@
       <c r="I30" s="8" t="s">
         <v>852</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="9" t="s">
+        <v>2408</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>2430</v>
+      </c>
+      <c r="L30" s="8" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="48">
+    <row r="31" spans="1:12" ht="60">
       <c r="A31" s="6" t="s">
         <v>299</v>
       </c>
@@ -16675,9 +17767,15 @@
       <c r="I31" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="1:10" ht="60">
+      <c r="J31" s="9" t="s">
+        <v>2409</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>2431</v>
+      </c>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" ht="72">
       <c r="A32" s="6" t="s">
         <v>307</v>
       </c>
@@ -16705,9 +17803,11 @@
       <c r="I32" s="8" t="s">
         <v>857</v>
       </c>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="1:10" ht="24">
+      <c r="J32" s="42"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:12" ht="24">
       <c r="A33" s="6" t="s">
         <v>603</v>
       </c>
@@ -16735,9 +17835,15 @@
       <c r="I33" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="1:10" ht="48">
+      <c r="J33" s="9" t="s">
+        <v>2410</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>2432</v>
+      </c>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:12" ht="48">
       <c r="A34" s="6" t="s">
         <v>609</v>
       </c>
@@ -16765,9 +17871,15 @@
       <c r="I34" s="8" t="s">
         <v>861</v>
       </c>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="1:10" ht="60">
+      <c r="J34" s="9" t="s">
+        <v>2411</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>2433</v>
+      </c>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:12" ht="72">
       <c r="A35" s="6" t="s">
         <v>616</v>
       </c>
@@ -16795,11 +17907,13 @@
       <c r="I35" s="8" t="s">
         <v>863</v>
       </c>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="1:10" ht="24">
+      <c r="J35" s="42"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:12" ht="24">
       <c r="A36" s="6" t="s">
-        <v>566</v>
+        <v>2412</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>150</v>
@@ -16825,9 +17939,15 @@
       <c r="I36" s="8" t="s">
         <v>865</v>
       </c>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="1:10" ht="48">
+      <c r="J36" s="42" t="s">
+        <v>2413</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>2434</v>
+      </c>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" ht="48">
       <c r="A37" s="6" t="s">
         <v>866</v>
       </c>
@@ -16855,9 +17975,15 @@
       <c r="I37" s="8" t="s">
         <v>868</v>
       </c>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="1:10" ht="60">
+      <c r="J37" s="42" t="s">
+        <v>2414</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>2435</v>
+      </c>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:12" ht="72">
       <c r="A38" s="6" t="s">
         <v>869</v>
       </c>
@@ -16885,9 +18011,11 @@
       <c r="I38" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="1:10" ht="24">
+      <c r="J38" s="42"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:12" ht="24">
       <c r="A39" s="6" t="s">
         <v>578</v>
       </c>
@@ -16915,9 +18043,15 @@
       <c r="I39" s="8" t="s">
         <v>873</v>
       </c>
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="1:10" ht="48">
+      <c r="J39" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>2436</v>
+      </c>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" ht="48">
       <c r="A40" s="6" t="s">
         <v>874</v>
       </c>
@@ -16945,9 +18079,15 @@
       <c r="I40" s="8" t="s">
         <v>876</v>
       </c>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="1:10" ht="60">
+      <c r="J40" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>2437</v>
+      </c>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:12" ht="72">
       <c r="A41" s="6" t="s">
         <v>877</v>
       </c>
@@ -16975,9 +18115,11 @@
       <c r="I41" s="8" t="s">
         <v>879</v>
       </c>
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="1:10" ht="24">
+      <c r="J41" s="42"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="1:12" ht="24">
       <c r="A42" s="6" t="s">
         <v>488</v>
       </c>
@@ -17005,9 +18147,15 @@
       <c r="I42" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="1:10" ht="36">
+      <c r="J42" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>2438</v>
+      </c>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12" ht="36">
       <c r="A43" s="6" t="s">
         <v>493</v>
       </c>
@@ -17035,9 +18183,15 @@
       <c r="I43" s="8" t="s">
         <v>883</v>
       </c>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="1:10" ht="48">
+      <c r="J43" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>2439</v>
+      </c>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:12" ht="48">
       <c r="A44" s="6" t="s">
         <v>884</v>
       </c>
@@ -17065,9 +18219,11 @@
       <c r="I44" s="8" t="s">
         <v>886</v>
       </c>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="1:10" ht="24">
+      <c r="J44" s="42"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:12" ht="24">
       <c r="A45" s="6" t="s">
         <v>511</v>
       </c>
@@ -17095,9 +18251,15 @@
       <c r="I45" s="8" t="s">
         <v>888</v>
       </c>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="1:10" ht="36">
+      <c r="J45" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>2440</v>
+      </c>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" ht="36">
       <c r="A46" s="6" t="s">
         <v>889</v>
       </c>
@@ -17125,9 +18287,15 @@
       <c r="I46" s="8" t="s">
         <v>891</v>
       </c>
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="1:10" ht="48">
+      <c r="J46" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:12" ht="48">
       <c r="A47" s="6" t="s">
         <v>892</v>
       </c>
@@ -17155,9 +18323,11 @@
       <c r="I47" s="8" t="s">
         <v>894</v>
       </c>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="1:10" ht="24">
+      <c r="J47" s="42"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:12" ht="24">
       <c r="A48" s="6" t="s">
         <v>516</v>
       </c>
@@ -17185,9 +18355,15 @@
       <c r="I48" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="1:10" ht="36">
+      <c r="J48" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="1:12" ht="36">
       <c r="A49" s="6" t="s">
         <v>897</v>
       </c>
@@ -17215,9 +18391,15 @@
       <c r="I49" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="1:10" ht="60">
+      <c r="J49" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>2443</v>
+      </c>
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="1:12" ht="60">
       <c r="A50" s="6" t="s">
         <v>900</v>
       </c>
@@ -17245,9 +18427,11 @@
       <c r="I50" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="1:10" ht="24">
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="1:12" ht="24">
       <c r="A51" s="6" t="s">
         <v>716</v>
       </c>
@@ -17275,9 +18459,15 @@
       <c r="I51" s="8" t="s">
         <v>904</v>
       </c>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="1:10" ht="36">
+      <c r="J51" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>2444</v>
+      </c>
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="1:12" ht="36">
       <c r="A52" s="6" t="s">
         <v>721</v>
       </c>
@@ -17305,9 +18495,15 @@
       <c r="I52" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="1:10" ht="48">
+      <c r="J52" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>2445</v>
+      </c>
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="1:12" ht="60">
       <c r="A53" s="6" t="s">
         <v>727</v>
       </c>
@@ -17335,9 +18531,11 @@
       <c r="I53" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="1:10" ht="36">
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="1:12" ht="36">
       <c r="A54" s="6" t="s">
         <v>239</v>
       </c>
@@ -17365,9 +18563,15 @@
       <c r="I54" s="8" t="s">
         <v>910</v>
       </c>
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="1:10" ht="48">
+      <c r="J54" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>2446</v>
+      </c>
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="1:12" ht="48">
       <c r="A55" s="6" t="s">
         <v>246</v>
       </c>
@@ -17395,9 +18599,15 @@
       <c r="I55" s="8" t="s">
         <v>912</v>
       </c>
-      <c r="J55" s="8"/>
-    </row>
-    <row r="56" spans="1:10" ht="60">
+      <c r="J55" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>2447</v>
+      </c>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="1:12" ht="72">
       <c r="A56" s="6" t="s">
         <v>913</v>
       </c>
@@ -17425,9 +18635,11 @@
       <c r="I56" s="8" t="s">
         <v>915</v>
       </c>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="1:10" ht="36">
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" spans="1:12" ht="36">
       <c r="A57" s="6" t="s">
         <v>233</v>
       </c>
@@ -17455,9 +18667,15 @@
       <c r="I57" s="8" t="s">
         <v>917</v>
       </c>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="1:10" ht="60">
+      <c r="J57" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>2448</v>
+      </c>
+      <c r="L57" s="8"/>
+    </row>
+    <row r="58" spans="1:12" ht="60">
       <c r="A58" s="6" t="s">
         <v>918</v>
       </c>
@@ -17485,9 +18703,15 @@
       <c r="I58" s="8" t="s">
         <v>920</v>
       </c>
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="1:10" ht="72">
+      <c r="J58" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" spans="1:12" ht="84">
       <c r="A59" s="6" t="s">
         <v>263</v>
       </c>
@@ -17515,9 +18739,11 @@
       <c r="I59" s="8" t="s">
         <v>922</v>
       </c>
-      <c r="J59" s="8"/>
-    </row>
-    <row r="60" spans="1:10" ht="24">
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="1:12" ht="24">
       <c r="A60" s="6" t="s">
         <v>923</v>
       </c>
@@ -17545,9 +18771,11 @@
       <c r="I60" s="8" t="s">
         <v>925</v>
       </c>
-      <c r="J60" s="8"/>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="8"/>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="6" t="s">
         <v>926</v>
       </c>
@@ -17573,9 +18801,11 @@
       <c r="I61" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J61" s="8"/>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="8"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="6" t="s">
         <v>931</v>
       </c>
@@ -17601,9 +18831,11 @@
       <c r="I62" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J62" s="8"/>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="8"/>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="6" t="s">
         <v>934</v>
       </c>
@@ -17629,9 +18861,11 @@
       <c r="I63" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J63" s="8"/>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="8"/>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="6" t="s">
         <v>938</v>
       </c>
@@ -17657,9 +18891,11 @@
       <c r="I64" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J64" s="8"/>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="8"/>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="6" t="s">
         <v>941</v>
       </c>
@@ -17685,9 +18921,11 @@
       <c r="I65" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J65" s="8"/>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="8"/>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="6" t="s">
         <v>945</v>
       </c>
@@ -17713,9 +18951,11 @@
       <c r="I66" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J66" s="8"/>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="8"/>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="6" t="s">
         <v>948</v>
       </c>
@@ -17741,9 +18981,11 @@
       <c r="I67" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J67" s="8"/>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="8"/>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="6" t="s">
         <v>953</v>
       </c>
@@ -17769,9 +19011,11 @@
       <c r="I68" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J68" s="8"/>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="8"/>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="6" t="s">
         <v>956</v>
       </c>
@@ -17797,9 +19041,11 @@
       <c r="I69" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J69" s="8"/>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="8"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="6" t="s">
         <v>960</v>
       </c>
@@ -17825,9 +19071,11 @@
       <c r="I70" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J70" s="8"/>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="8"/>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="6" t="s">
         <v>963</v>
       </c>
@@ -17853,9 +19101,11 @@
       <c r="I71" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J71" s="8"/>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="8"/>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="6" t="s">
         <v>967</v>
       </c>
@@ -17881,9 +19131,11 @@
       <c r="I72" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J72" s="8"/>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="8"/>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="6" t="s">
         <v>970</v>
       </c>
@@ -17909,9 +19161,11 @@
       <c r="I73" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J73" s="8"/>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="8"/>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="6" t="s">
         <v>975</v>
       </c>
@@ -17937,9 +19191,11 @@
       <c r="I74" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J74" s="8"/>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="8"/>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="6" t="s">
         <v>978</v>
       </c>
@@ -17965,9 +19221,11 @@
       <c r="I75" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J75" s="8"/>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="8"/>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="6" t="s">
         <v>982</v>
       </c>
@@ -17993,9 +19251,11 @@
       <c r="I76" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J76" s="8"/>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="8"/>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="6" t="s">
         <v>985</v>
       </c>
@@ -18021,9 +19281,11 @@
       <c r="I77" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J77" s="8"/>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="8"/>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="6" t="s">
         <v>989</v>
       </c>
@@ -18049,9 +19311,11 @@
       <c r="I78" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J78" s="8"/>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="8"/>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="6" t="s">
         <v>992</v>
       </c>
@@ -18077,9 +19341,11 @@
       <c r="I79" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J79" s="8"/>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="8"/>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="6" t="s">
         <v>997</v>
       </c>
@@ -18105,9 +19371,11 @@
       <c r="I80" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J80" s="8"/>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="8"/>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="6" t="s">
         <v>1000</v>
       </c>
@@ -18133,9 +19401,11 @@
       <c r="I81" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J81" s="8"/>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="8"/>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="6" t="s">
         <v>1004</v>
       </c>
@@ -18161,9 +19431,11 @@
       <c r="I82" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J82" s="8"/>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="8"/>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="6" t="s">
         <v>1007</v>
       </c>
@@ -18189,9 +19461,11 @@
       <c r="I83" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J83" s="8"/>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="8"/>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="6" t="s">
         <v>1011</v>
       </c>
@@ -18217,9 +19491,11 @@
       <c r="I84" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J84" s="8"/>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="8"/>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="6" t="s">
         <v>1014</v>
       </c>
@@ -18245,9 +19521,11 @@
       <c r="I85" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J85" s="8"/>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="8"/>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="6" t="s">
         <v>1019</v>
       </c>
@@ -18273,9 +19551,11 @@
       <c r="I86" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J86" s="8"/>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="J86" s="42"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="8"/>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="6" t="s">
         <v>1022</v>
       </c>
@@ -18301,9 +19581,11 @@
       <c r="I87" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J87" s="8"/>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="8"/>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="6" t="s">
         <v>1026</v>
       </c>
@@ -18329,9 +19611,11 @@
       <c r="I88" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J88" s="8"/>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="8"/>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="6" t="s">
         <v>1029</v>
       </c>
@@ -18357,9 +19641,11 @@
       <c r="I89" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J89" s="8"/>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="J89" s="42"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="8"/>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="6" t="s">
         <v>1033</v>
       </c>
@@ -18385,9 +19671,11 @@
       <c r="I90" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J90" s="8"/>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="8"/>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="6" t="s">
         <v>1036</v>
       </c>
@@ -18413,9 +19701,11 @@
       <c r="I91" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J91" s="8"/>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="J91" s="42"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="8"/>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="6" t="s">
         <v>1041</v>
       </c>
@@ -18441,9 +19731,11 @@
       <c r="I92" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J92" s="8"/>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="J92" s="42"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="8"/>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="6" t="s">
         <v>1044</v>
       </c>
@@ -18469,9 +19761,11 @@
       <c r="I93" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J93" s="8"/>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="8"/>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="6" t="s">
         <v>1048</v>
       </c>
@@ -18497,9 +19791,11 @@
       <c r="I94" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J94" s="8"/>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="J94" s="42"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="8"/>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="6" t="s">
         <v>1051</v>
       </c>
@@ -18525,9 +19821,11 @@
       <c r="I95" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J95" s="8"/>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="J95" s="42"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="8"/>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="6" t="s">
         <v>1055</v>
       </c>
@@ -18553,9 +19851,11 @@
       <c r="I96" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J96" s="8"/>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="8"/>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="6" t="s">
         <v>1058</v>
       </c>
@@ -18581,9 +19881,11 @@
       <c r="I97" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J97" s="8"/>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="J97" s="42"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="8"/>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="6" t="s">
         <v>1062</v>
       </c>
@@ -18609,9 +19911,11 @@
       <c r="I98" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J98" s="8"/>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="J98" s="42"/>
+      <c r="K98" s="42"/>
+      <c r="L98" s="8"/>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="6" t="s">
         <v>1065</v>
       </c>
@@ -18637,9 +19941,11 @@
       <c r="I99" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J99" s="8"/>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="J99" s="42"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="8"/>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="6" t="s">
         <v>1068</v>
       </c>
@@ -18665,9 +19971,11 @@
       <c r="I100" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J100" s="8"/>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="J100" s="42"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="8"/>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="6" t="s">
         <v>1071</v>
       </c>
@@ -18693,9 +20001,11 @@
       <c r="I101" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J101" s="8"/>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="J101" s="42"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="8"/>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="6" t="s">
         <v>1074</v>
       </c>
@@ -18721,9 +20031,11 @@
       <c r="I102" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J102" s="8"/>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="J102" s="42"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="8"/>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="6" t="s">
         <v>1077</v>
       </c>
@@ -18749,9 +20061,11 @@
       <c r="I103" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J103" s="8"/>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="J103" s="42"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="8"/>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="6" t="s">
         <v>1080</v>
       </c>
@@ -18777,9 +20091,11 @@
       <c r="I104" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J104" s="8"/>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="J104" s="42"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="8"/>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="6" t="s">
         <v>1083</v>
       </c>
@@ -18805,9 +20121,11 @@
       <c r="I105" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J105" s="8"/>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="J105" s="42"/>
+      <c r="K105" s="42"/>
+      <c r="L105" s="8"/>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="6" t="s">
         <v>1086</v>
       </c>
@@ -18833,9 +20151,11 @@
       <c r="I106" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J106" s="8"/>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="8"/>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="6" t="s">
         <v>1089</v>
       </c>
@@ -18861,9 +20181,11 @@
       <c r="I107" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J107" s="8"/>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="8"/>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="6" t="s">
         <v>1092</v>
       </c>
@@ -18889,9 +20211,11 @@
       <c r="I108" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J108" s="8"/>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="8"/>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="6" t="s">
         <v>1095</v>
       </c>
@@ -18917,9 +20241,11 @@
       <c r="I109" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J109" s="8"/>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="8"/>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="6" t="s">
         <v>1098</v>
       </c>
@@ -18945,9 +20271,11 @@
       <c r="I110" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J110" s="8"/>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="J110" s="42"/>
+      <c r="K110" s="42"/>
+      <c r="L110" s="8"/>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="6" t="s">
         <v>1101</v>
       </c>
@@ -18973,9 +20301,11 @@
       <c r="I111" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J111" s="8"/>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="J111" s="42"/>
+      <c r="K111" s="42"/>
+      <c r="L111" s="8"/>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="6" t="s">
         <v>1104</v>
       </c>
@@ -19001,9 +20331,11 @@
       <c r="I112" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J112" s="8"/>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="J112" s="42"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="8"/>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="6" t="s">
         <v>1107</v>
       </c>
@@ -19029,9 +20361,11 @@
       <c r="I113" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J113" s="8"/>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="J113" s="42"/>
+      <c r="K113" s="42"/>
+      <c r="L113" s="8"/>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="6" t="s">
         <v>1110</v>
       </c>
@@ -19057,9 +20391,11 @@
       <c r="I114" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J114" s="8"/>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="J114" s="42"/>
+      <c r="K114" s="42"/>
+      <c r="L114" s="8"/>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="6" t="s">
         <v>1113</v>
       </c>
@@ -19085,9 +20421,11 @@
       <c r="I115" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J115" s="8"/>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="J115" s="42"/>
+      <c r="K115" s="42"/>
+      <c r="L115" s="8"/>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="6" t="s">
         <v>1117</v>
       </c>
@@ -19113,9 +20451,11 @@
       <c r="I116" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J116" s="8"/>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="J116" s="42"/>
+      <c r="K116" s="42"/>
+      <c r="L116" s="8"/>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="6" t="s">
         <v>1120</v>
       </c>
@@ -19141,9 +20481,11 @@
       <c r="I117" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J117" s="8"/>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="J117" s="42"/>
+      <c r="K117" s="42"/>
+      <c r="L117" s="8"/>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="6" t="s">
         <v>1123</v>
       </c>
@@ -19169,9 +20511,11 @@
       <c r="I118" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J118" s="8"/>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="J118" s="42"/>
+      <c r="K118" s="42"/>
+      <c r="L118" s="8"/>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="6" t="s">
         <v>1126</v>
       </c>
@@ -19197,9 +20541,11 @@
       <c r="I119" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J119" s="8"/>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="J119" s="42"/>
+      <c r="K119" s="42"/>
+      <c r="L119" s="8"/>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="6" t="s">
         <v>1129</v>
       </c>
@@ -19225,9 +20571,11 @@
       <c r="I120" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J120" s="8"/>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="J120" s="42"/>
+      <c r="K120" s="42"/>
+      <c r="L120" s="8"/>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="6" t="s">
         <v>1132</v>
       </c>
@@ -19253,9 +20601,11 @@
       <c r="I121" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J121" s="8"/>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="J121" s="42"/>
+      <c r="K121" s="42"/>
+      <c r="L121" s="8"/>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="6" t="s">
         <v>1135</v>
       </c>
@@ -19281,9 +20631,11 @@
       <c r="I122" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J122" s="8"/>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="J122" s="42"/>
+      <c r="K122" s="42"/>
+      <c r="L122" s="8"/>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="6" t="s">
         <v>1138</v>
       </c>
@@ -19309,9 +20661,11 @@
       <c r="I123" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J123" s="8"/>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="J123" s="42"/>
+      <c r="K123" s="42"/>
+      <c r="L123" s="8"/>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="6" t="s">
         <v>1141</v>
       </c>
@@ -19337,9 +20691,11 @@
       <c r="I124" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J124" s="8"/>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="J124" s="42"/>
+      <c r="K124" s="42"/>
+      <c r="L124" s="8"/>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="6" t="s">
         <v>1144</v>
       </c>
@@ -19365,9 +20721,11 @@
       <c r="I125" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J125" s="8"/>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="J125" s="42"/>
+      <c r="K125" s="42"/>
+      <c r="L125" s="8"/>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="6" t="s">
         <v>1147</v>
       </c>
@@ -19393,9 +20751,11 @@
       <c r="I126" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J126" s="8"/>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="J126" s="42"/>
+      <c r="K126" s="42"/>
+      <c r="L126" s="8"/>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="6" t="s">
         <v>1150</v>
       </c>
@@ -19421,9 +20781,11 @@
       <c r="I127" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J127" s="8"/>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="J127" s="42"/>
+      <c r="K127" s="42"/>
+      <c r="L127" s="8"/>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="6" t="s">
         <v>1153</v>
       </c>
@@ -19449,9 +20811,11 @@
       <c r="I128" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J128" s="8"/>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="J128" s="42"/>
+      <c r="K128" s="42"/>
+      <c r="L128" s="8"/>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="6" t="s">
         <v>1156</v>
       </c>
@@ -19477,9 +20841,11 @@
       <c r="I129" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J129" s="8"/>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="J129" s="42"/>
+      <c r="K129" s="42"/>
+      <c r="L129" s="8"/>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="6" t="s">
         <v>1159</v>
       </c>
@@ -19505,9 +20871,11 @@
       <c r="I130" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J130" s="8"/>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="J130" s="42"/>
+      <c r="K130" s="42"/>
+      <c r="L130" s="8"/>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="6" t="s">
         <v>1162</v>
       </c>
@@ -19533,9 +20901,11 @@
       <c r="I131" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J131" s="8"/>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="J131" s="42"/>
+      <c r="K131" s="42"/>
+      <c r="L131" s="8"/>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="6" t="s">
         <v>1165</v>
       </c>
@@ -19561,9 +20931,11 @@
       <c r="I132" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J132" s="8"/>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="J132" s="42"/>
+      <c r="K132" s="42"/>
+      <c r="L132" s="8"/>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="6" t="s">
         <v>1168</v>
       </c>
@@ -19589,9 +20961,11 @@
       <c r="I133" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J133" s="8"/>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="J133" s="42"/>
+      <c r="K133" s="42"/>
+      <c r="L133" s="8"/>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="6" t="s">
         <v>1172</v>
       </c>
@@ -19617,9 +20991,11 @@
       <c r="I134" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J134" s="8"/>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="J134" s="42"/>
+      <c r="K134" s="42"/>
+      <c r="L134" s="8"/>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="6" t="s">
         <v>1175</v>
       </c>
@@ -19645,9 +21021,11 @@
       <c r="I135" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J135" s="8"/>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="J135" s="42"/>
+      <c r="K135" s="42"/>
+      <c r="L135" s="8"/>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="6" t="s">
         <v>1178</v>
       </c>
@@ -19673,9 +21051,11 @@
       <c r="I136" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J136" s="8"/>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="J136" s="42"/>
+      <c r="K136" s="42"/>
+      <c r="L136" s="8"/>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="6" t="s">
         <v>1181</v>
       </c>
@@ -19701,9 +21081,11 @@
       <c r="I137" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J137" s="8"/>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="J137" s="42"/>
+      <c r="K137" s="42"/>
+      <c r="L137" s="8"/>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="6" t="s">
         <v>1184</v>
       </c>
@@ -19729,9 +21111,11 @@
       <c r="I138" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J138" s="8"/>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="J138" s="42"/>
+      <c r="K138" s="42"/>
+      <c r="L138" s="8"/>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="6" t="s">
         <v>1187</v>
       </c>
@@ -19757,9 +21141,11 @@
       <c r="I139" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J139" s="8"/>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="J139" s="42"/>
+      <c r="K139" s="42"/>
+      <c r="L139" s="8"/>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="6" t="s">
         <v>1190</v>
       </c>
@@ -19785,9 +21171,11 @@
       <c r="I140" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J140" s="8"/>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="J140" s="42"/>
+      <c r="K140" s="42"/>
+      <c r="L140" s="8"/>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="6" t="s">
         <v>1193</v>
       </c>
@@ -19813,9 +21201,11 @@
       <c r="I141" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J141" s="8"/>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="J141" s="42"/>
+      <c r="K141" s="42"/>
+      <c r="L141" s="8"/>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="6" t="s">
         <v>1196</v>
       </c>
@@ -19841,9 +21231,11 @@
       <c r="I142" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J142" s="8"/>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="J142" s="42"/>
+      <c r="K142" s="42"/>
+      <c r="L142" s="8"/>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="6" t="s">
         <v>1199</v>
       </c>
@@ -19869,9 +21261,11 @@
       <c r="I143" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J143" s="8"/>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="J143" s="42"/>
+      <c r="K143" s="42"/>
+      <c r="L143" s="8"/>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="6" t="s">
         <v>1202</v>
       </c>
@@ -19897,9 +21291,11 @@
       <c r="I144" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J144" s="8"/>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="J144" s="42"/>
+      <c r="K144" s="42"/>
+      <c r="L144" s="8"/>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="6" t="s">
         <v>1205</v>
       </c>
@@ -19925,9 +21321,11 @@
       <c r="I145" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J145" s="8"/>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="J145" s="42"/>
+      <c r="K145" s="42"/>
+      <c r="L145" s="8"/>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="6" t="s">
         <v>1208</v>
       </c>
@@ -19953,9 +21351,11 @@
       <c r="I146" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J146" s="8"/>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="J146" s="42"/>
+      <c r="K146" s="42"/>
+      <c r="L146" s="8"/>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="6" t="s">
         <v>1211</v>
       </c>
@@ -19981,9 +21381,11 @@
       <c r="I147" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J147" s="8"/>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="J147" s="42"/>
+      <c r="K147" s="42"/>
+      <c r="L147" s="8"/>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="6" t="s">
         <v>1214</v>
       </c>
@@ -20009,9 +21411,11 @@
       <c r="I148" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J148" s="8"/>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="J148" s="42"/>
+      <c r="K148" s="42"/>
+      <c r="L148" s="8"/>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="6" t="s">
         <v>1217</v>
       </c>
@@ -20037,9 +21441,11 @@
       <c r="I149" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J149" s="8"/>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="J149" s="42"/>
+      <c r="K149" s="42"/>
+      <c r="L149" s="8"/>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" s="6" t="s">
         <v>1220</v>
       </c>
@@ -20065,9 +21471,11 @@
       <c r="I150" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J150" s="8"/>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="J150" s="42"/>
+      <c r="K150" s="42"/>
+      <c r="L150" s="8"/>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="6" t="s">
         <v>1223</v>
       </c>
@@ -20093,9 +21501,11 @@
       <c r="I151" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J151" s="8"/>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="J151" s="42"/>
+      <c r="K151" s="42"/>
+      <c r="L151" s="8"/>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" s="6" t="s">
         <v>1226</v>
       </c>
@@ -20121,9 +21531,11 @@
       <c r="I152" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J152" s="8"/>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="J152" s="42"/>
+      <c r="K152" s="42"/>
+      <c r="L152" s="8"/>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" s="6" t="s">
         <v>1229</v>
       </c>
@@ -20149,9 +21561,11 @@
       <c r="I153" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J153" s="8"/>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="J153" s="42"/>
+      <c r="K153" s="42"/>
+      <c r="L153" s="8"/>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" s="6" t="s">
         <v>1232</v>
       </c>
@@ -20177,9 +21591,11 @@
       <c r="I154" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J154" s="8"/>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="J154" s="42"/>
+      <c r="K154" s="42"/>
+      <c r="L154" s="8"/>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" s="6" t="s">
         <v>1235</v>
       </c>
@@ -20205,9 +21621,11 @@
       <c r="I155" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J155" s="8"/>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="J155" s="42"/>
+      <c r="K155" s="42"/>
+      <c r="L155" s="8"/>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" s="6" t="s">
         <v>1238</v>
       </c>
@@ -20233,9 +21651,11 @@
       <c r="I156" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J156" s="8"/>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="J156" s="42"/>
+      <c r="K156" s="42"/>
+      <c r="L156" s="8"/>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" s="6" t="s">
         <v>1241</v>
       </c>
@@ -20261,9 +21681,11 @@
       <c r="I157" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J157" s="8"/>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="J157" s="42"/>
+      <c r="K157" s="42"/>
+      <c r="L157" s="8"/>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" s="6" t="s">
         <v>1244</v>
       </c>
@@ -20289,9 +21711,11 @@
       <c r="I158" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J158" s="8"/>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="J158" s="42"/>
+      <c r="K158" s="42"/>
+      <c r="L158" s="8"/>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" s="6" t="s">
         <v>1247</v>
       </c>
@@ -20317,9 +21741,11 @@
       <c r="I159" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J159" s="8"/>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="J159" s="42"/>
+      <c r="K159" s="42"/>
+      <c r="L159" s="8"/>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" s="6" t="s">
         <v>1250</v>
       </c>
@@ -20345,9 +21771,11 @@
       <c r="I160" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J160" s="8"/>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="J160" s="42"/>
+      <c r="K160" s="42"/>
+      <c r="L160" s="8"/>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" s="6" t="s">
         <v>1253</v>
       </c>
@@ -20373,9 +21801,11 @@
       <c r="I161" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J161" s="8"/>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="J161" s="42"/>
+      <c r="K161" s="42"/>
+      <c r="L161" s="8"/>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" s="6" t="s">
         <v>1256</v>
       </c>
@@ -20401,9 +21831,11 @@
       <c r="I162" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J162" s="8"/>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="J162" s="42"/>
+      <c r="K162" s="42"/>
+      <c r="L162" s="8"/>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" s="6" t="s">
         <v>1259</v>
       </c>
@@ -20429,9 +21861,11 @@
       <c r="I163" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J163" s="8"/>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="J163" s="42"/>
+      <c r="K163" s="42"/>
+      <c r="L163" s="8"/>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" s="6" t="s">
         <v>1262</v>
       </c>
@@ -20457,9 +21891,11 @@
       <c r="I164" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J164" s="8"/>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="J164" s="42"/>
+      <c r="K164" s="42"/>
+      <c r="L164" s="8"/>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" s="6" t="s">
         <v>1265</v>
       </c>
@@ -20485,9 +21921,11 @@
       <c r="I165" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J165" s="8"/>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="J165" s="42"/>
+      <c r="K165" s="42"/>
+      <c r="L165" s="8"/>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" s="6" t="s">
         <v>1268</v>
       </c>
@@ -20513,9 +21951,11 @@
       <c r="I166" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J166" s="8"/>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="J166" s="42"/>
+      <c r="K166" s="42"/>
+      <c r="L166" s="8"/>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="6" t="s">
         <v>1271</v>
       </c>
@@ -20541,9 +21981,11 @@
       <c r="I167" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J167" s="8"/>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="J167" s="42"/>
+      <c r="K167" s="42"/>
+      <c r="L167" s="8"/>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" s="6" t="s">
         <v>1274</v>
       </c>
@@ -20569,9 +22011,11 @@
       <c r="I168" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J168" s="8"/>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="J168" s="42"/>
+      <c r="K168" s="42"/>
+      <c r="L168" s="8"/>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" s="6" t="s">
         <v>1277</v>
       </c>
@@ -20597,9 +22041,11 @@
       <c r="I169" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J169" s="8"/>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="J169" s="42"/>
+      <c r="K169" s="42"/>
+      <c r="L169" s="8"/>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" s="6" t="s">
         <v>1280</v>
       </c>
@@ -20625,9 +22071,11 @@
       <c r="I170" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J170" s="8"/>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="J170" s="42"/>
+      <c r="K170" s="42"/>
+      <c r="L170" s="8"/>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" s="6" t="s">
         <v>1283</v>
       </c>
@@ -20653,9 +22101,11 @@
       <c r="I171" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J171" s="8"/>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="J171" s="42"/>
+      <c r="K171" s="42"/>
+      <c r="L171" s="8"/>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" s="6" t="s">
         <v>1286</v>
       </c>
@@ -20681,9 +22131,11 @@
       <c r="I172" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J172" s="8"/>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="J172" s="42"/>
+      <c r="K172" s="42"/>
+      <c r="L172" s="8"/>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" s="6" t="s">
         <v>1289</v>
       </c>
@@ -20709,9 +22161,11 @@
       <c r="I173" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J173" s="8"/>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="J173" s="42"/>
+      <c r="K173" s="42"/>
+      <c r="L173" s="8"/>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" s="6" t="s">
         <v>1292</v>
       </c>
@@ -20737,9 +22191,11 @@
       <c r="I174" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J174" s="8"/>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="J174" s="42"/>
+      <c r="K174" s="42"/>
+      <c r="L174" s="8"/>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" s="6" t="s">
         <v>1295</v>
       </c>
@@ -20765,9 +22221,11 @@
       <c r="I175" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J175" s="8"/>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="J175" s="42"/>
+      <c r="K175" s="42"/>
+      <c r="L175" s="8"/>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" s="6" t="s">
         <v>1299</v>
       </c>
@@ -20793,9 +22251,11 @@
       <c r="I176" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J176" s="8"/>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="J176" s="42"/>
+      <c r="K176" s="42"/>
+      <c r="L176" s="8"/>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" s="6" t="s">
         <v>1302</v>
       </c>
@@ -20821,9 +22281,11 @@
       <c r="I177" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J177" s="8"/>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="J177" s="42"/>
+      <c r="K177" s="42"/>
+      <c r="L177" s="8"/>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" s="6" t="s">
         <v>1305</v>
       </c>
@@ -20849,9 +22311,11 @@
       <c r="I178" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J178" s="8"/>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="J178" s="42"/>
+      <c r="K178" s="42"/>
+      <c r="L178" s="8"/>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" s="6" t="s">
         <v>1308</v>
       </c>
@@ -20877,9 +22341,11 @@
       <c r="I179" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J179" s="8"/>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="J179" s="42"/>
+      <c r="K179" s="42"/>
+      <c r="L179" s="8"/>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" s="6" t="s">
         <v>1311</v>
       </c>
@@ -20905,9 +22371,11 @@
       <c r="I180" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J180" s="8"/>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="J180" s="42"/>
+      <c r="K180" s="42"/>
+      <c r="L180" s="8"/>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" s="6" t="s">
         <v>1314</v>
       </c>
@@ -20933,9 +22401,11 @@
       <c r="I181" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J181" s="8"/>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="J181" s="42"/>
+      <c r="K181" s="42"/>
+      <c r="L181" s="8"/>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182" s="6" t="s">
         <v>1317</v>
       </c>
@@ -20961,9 +22431,11 @@
       <c r="I182" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J182" s="8"/>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="J182" s="42"/>
+      <c r="K182" s="42"/>
+      <c r="L182" s="8"/>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" s="6" t="s">
         <v>1320</v>
       </c>
@@ -20989,9 +22461,11 @@
       <c r="I183" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J183" s="8"/>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="J183" s="42"/>
+      <c r="K183" s="42"/>
+      <c r="L183" s="8"/>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" s="6" t="s">
         <v>1323</v>
       </c>
@@ -21017,9 +22491,11 @@
       <c r="I184" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J184" s="8"/>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="J184" s="42"/>
+      <c r="K184" s="42"/>
+      <c r="L184" s="8"/>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" s="6" t="s">
         <v>1326</v>
       </c>
@@ -21045,9 +22521,11 @@
       <c r="I185" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J185" s="8"/>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="J185" s="42"/>
+      <c r="K185" s="42"/>
+      <c r="L185" s="8"/>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" s="6" t="s">
         <v>1329</v>
       </c>
@@ -21073,9 +22551,11 @@
       <c r="I186" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J186" s="8"/>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="J186" s="42"/>
+      <c r="K186" s="42"/>
+      <c r="L186" s="8"/>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187" s="6" t="s">
         <v>1332</v>
       </c>
@@ -21101,9 +22581,11 @@
       <c r="I187" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J187" s="8"/>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="J187" s="42"/>
+      <c r="K187" s="42"/>
+      <c r="L187" s="8"/>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" s="6" t="s">
         <v>1336</v>
       </c>
@@ -21129,9 +22611,11 @@
       <c r="I188" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J188" s="8"/>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="J188" s="42"/>
+      <c r="K188" s="42"/>
+      <c r="L188" s="8"/>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189" s="6" t="s">
         <v>1339</v>
       </c>
@@ -21157,9 +22641,11 @@
       <c r="I189" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J189" s="8"/>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="J189" s="42"/>
+      <c r="K189" s="42"/>
+      <c r="L189" s="8"/>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" s="6" t="s">
         <v>1342</v>
       </c>
@@ -21185,9 +22671,11 @@
       <c r="I190" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J190" s="8"/>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="J190" s="42"/>
+      <c r="K190" s="42"/>
+      <c r="L190" s="8"/>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191" s="6" t="s">
         <v>1345</v>
       </c>
@@ -21213,9 +22701,11 @@
       <c r="I191" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J191" s="8"/>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="J191" s="42"/>
+      <c r="K191" s="42"/>
+      <c r="L191" s="8"/>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192" s="6" t="s">
         <v>1348</v>
       </c>
@@ -21241,9 +22731,11 @@
       <c r="I192" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J192" s="8"/>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="J192" s="42"/>
+      <c r="K192" s="42"/>
+      <c r="L192" s="8"/>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" s="6" t="s">
         <v>1351</v>
       </c>
@@ -21269,9 +22761,11 @@
       <c r="I193" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J193" s="8"/>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="J193" s="42"/>
+      <c r="K193" s="42"/>
+      <c r="L193" s="8"/>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" s="6" t="s">
         <v>1354</v>
       </c>
@@ -21297,9 +22791,11 @@
       <c r="I194" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J194" s="8"/>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="J194" s="42"/>
+      <c r="K194" s="42"/>
+      <c r="L194" s="8"/>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" s="6" t="s">
         <v>1357</v>
       </c>
@@ -21325,9 +22821,11 @@
       <c r="I195" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J195" s="8"/>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="J195" s="42"/>
+      <c r="K195" s="42"/>
+      <c r="L195" s="8"/>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" s="6" t="s">
         <v>1360</v>
       </c>
@@ -21353,9 +22851,11 @@
       <c r="I196" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J196" s="8"/>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="J196" s="42"/>
+      <c r="K196" s="42"/>
+      <c r="L196" s="8"/>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197" s="6" t="s">
         <v>1363</v>
       </c>
@@ -21381,9 +22881,11 @@
       <c r="I197" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J197" s="8"/>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="J197" s="42"/>
+      <c r="K197" s="42"/>
+      <c r="L197" s="8"/>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198" s="6" t="s">
         <v>1366</v>
       </c>
@@ -21409,9 +22911,11 @@
       <c r="I198" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J198" s="8"/>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="J198" s="42"/>
+      <c r="K198" s="42"/>
+      <c r="L198" s="8"/>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199" s="6" t="s">
         <v>1369</v>
       </c>
@@ -21437,11 +22941,13 @@
       <c r="I199" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J199" s="8" t="s">
+      <c r="J199" s="42"/>
+      <c r="K199" s="42"/>
+      <c r="L199" s="8" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:12">
       <c r="A200" s="6" t="s">
         <v>1375</v>
       </c>
@@ -21467,9 +22973,11 @@
       <c r="I200" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J200" s="8"/>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="J200" s="42"/>
+      <c r="K200" s="42"/>
+      <c r="L200" s="8"/>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201" s="6" t="s">
         <v>1378</v>
       </c>
@@ -21495,9 +23003,11 @@
       <c r="I201" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J201" s="8"/>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="J201" s="42"/>
+      <c r="K201" s="42"/>
+      <c r="L201" s="8"/>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202" s="6" t="s">
         <v>1381</v>
       </c>
@@ -21523,9 +23033,11 @@
       <c r="I202" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J202" s="8"/>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="J202" s="42"/>
+      <c r="K202" s="42"/>
+      <c r="L202" s="8"/>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203" s="6" t="s">
         <v>1384</v>
       </c>
@@ -21551,9 +23063,11 @@
       <c r="I203" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J203" s="8"/>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="J203" s="42"/>
+      <c r="K203" s="42"/>
+      <c r="L203" s="8"/>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204" s="6" t="s">
         <v>1387</v>
       </c>
@@ -21579,9 +23093,11 @@
       <c r="I204" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J204" s="8"/>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="J204" s="42"/>
+      <c r="K204" s="42"/>
+      <c r="L204" s="8"/>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205" s="6" t="s">
         <v>1390</v>
       </c>
@@ -21607,9 +23123,11 @@
       <c r="I205" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J205" s="8"/>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="J205" s="42"/>
+      <c r="K205" s="42"/>
+      <c r="L205" s="8"/>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206" s="6" t="s">
         <v>1393</v>
       </c>
@@ -21635,9 +23153,11 @@
       <c r="I206" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J206" s="8"/>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="J206" s="42"/>
+      <c r="K206" s="42"/>
+      <c r="L206" s="8"/>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207" s="6" t="s">
         <v>1396</v>
       </c>
@@ -21663,9 +23183,11 @@
       <c r="I207" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J207" s="8"/>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="J207" s="42"/>
+      <c r="K207" s="42"/>
+      <c r="L207" s="8"/>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208" s="6" t="s">
         <v>1399</v>
       </c>
@@ -21691,9 +23213,11 @@
       <c r="I208" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J208" s="8"/>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="J208" s="42"/>
+      <c r="K208" s="42"/>
+      <c r="L208" s="8"/>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209" s="6" t="s">
         <v>1402</v>
       </c>
@@ -21719,9 +23243,11 @@
       <c r="I209" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J209" s="8"/>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="J209" s="42"/>
+      <c r="K209" s="42"/>
+      <c r="L209" s="8"/>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210" s="6" t="s">
         <v>1405</v>
       </c>
@@ -21747,9 +23273,11 @@
       <c r="I210" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J210" s="8"/>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="J210" s="42"/>
+      <c r="K210" s="42"/>
+      <c r="L210" s="8"/>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211" s="6" t="s">
         <v>1408</v>
       </c>
@@ -21775,9 +23303,11 @@
       <c r="I211" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J211" s="8"/>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="J211" s="42"/>
+      <c r="K211" s="42"/>
+      <c r="L211" s="8"/>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212" s="6" t="s">
         <v>1412</v>
       </c>
@@ -21803,9 +23333,11 @@
       <c r="I212" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J212" s="8"/>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="J212" s="42"/>
+      <c r="K212" s="42"/>
+      <c r="L212" s="8"/>
+    </row>
+    <row r="213" spans="1:12">
       <c r="A213" s="6" t="s">
         <v>1415</v>
       </c>
@@ -21831,9 +23363,11 @@
       <c r="I213" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J213" s="8"/>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="J213" s="42"/>
+      <c r="K213" s="42"/>
+      <c r="L213" s="8"/>
+    </row>
+    <row r="214" spans="1:12">
       <c r="A214" s="6" t="s">
         <v>1418</v>
       </c>
@@ -21859,9 +23393,11 @@
       <c r="I214" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J214" s="8"/>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="J214" s="42"/>
+      <c r="K214" s="42"/>
+      <c r="L214" s="8"/>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215" s="6" t="s">
         <v>1421</v>
       </c>
@@ -21887,9 +23423,11 @@
       <c r="I215" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J215" s="8"/>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="J215" s="42"/>
+      <c r="K215" s="42"/>
+      <c r="L215" s="8"/>
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216" s="6" t="s">
         <v>1424</v>
       </c>
@@ -21915,9 +23453,11 @@
       <c r="I216" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J216" s="8"/>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="J216" s="42"/>
+      <c r="K216" s="42"/>
+      <c r="L216" s="8"/>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217" s="6" t="s">
         <v>1427</v>
       </c>
@@ -21943,9 +23483,11 @@
       <c r="I217" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J217" s="8"/>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="J217" s="42"/>
+      <c r="K217" s="42"/>
+      <c r="L217" s="8"/>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218" s="6" t="s">
         <v>1430</v>
       </c>
@@ -21971,9 +23513,11 @@
       <c r="I218" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J218" s="8"/>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="J218" s="42"/>
+      <c r="K218" s="42"/>
+      <c r="L218" s="8"/>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219" s="6" t="s">
         <v>1433</v>
       </c>
@@ -21999,9 +23543,11 @@
       <c r="I219" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J219" s="8"/>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="J219" s="42"/>
+      <c r="K219" s="42"/>
+      <c r="L219" s="8"/>
+    </row>
+    <row r="220" spans="1:12">
       <c r="A220" s="6" t="s">
         <v>1436</v>
       </c>
@@ -22027,9 +23573,11 @@
       <c r="I220" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J220" s="8"/>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="J220" s="42"/>
+      <c r="K220" s="42"/>
+      <c r="L220" s="8"/>
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221" s="6" t="s">
         <v>1439</v>
       </c>
@@ -22055,9 +23603,11 @@
       <c r="I221" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J221" s="8"/>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="J221" s="42"/>
+      <c r="K221" s="42"/>
+      <c r="L221" s="8"/>
+    </row>
+    <row r="222" spans="1:12">
       <c r="A222" s="6" t="s">
         <v>1442</v>
       </c>
@@ -22083,9 +23633,11 @@
       <c r="I222" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J222" s="8"/>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="J222" s="42"/>
+      <c r="K222" s="42"/>
+      <c r="L222" s="8"/>
+    </row>
+    <row r="223" spans="1:12">
       <c r="A223" s="6" t="s">
         <v>1445</v>
       </c>
@@ -22111,9 +23663,11 @@
       <c r="I223" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J223" s="8"/>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="J223" s="42"/>
+      <c r="K223" s="42"/>
+      <c r="L223" s="8"/>
+    </row>
+    <row r="224" spans="1:12">
       <c r="A224" s="6" t="s">
         <v>1449</v>
       </c>
@@ -22139,9 +23693,11 @@
       <c r="I224" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J224" s="8"/>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="J224" s="42"/>
+      <c r="K224" s="42"/>
+      <c r="L224" s="8"/>
+    </row>
+    <row r="225" spans="1:12">
       <c r="A225" s="6" t="s">
         <v>1452</v>
       </c>
@@ -22167,9 +23723,11 @@
       <c r="I225" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J225" s="8"/>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="J225" s="42"/>
+      <c r="K225" s="42"/>
+      <c r="L225" s="8"/>
+    </row>
+    <row r="226" spans="1:12">
       <c r="A226" s="6" t="s">
         <v>1455</v>
       </c>
@@ -22195,9 +23753,11 @@
       <c r="I226" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J226" s="8"/>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="J226" s="42"/>
+      <c r="K226" s="42"/>
+      <c r="L226" s="8"/>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227" s="6" t="s">
         <v>1458</v>
       </c>
@@ -22223,9 +23783,11 @@
       <c r="I227" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J227" s="8"/>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="J227" s="42"/>
+      <c r="K227" s="42"/>
+      <c r="L227" s="8"/>
+    </row>
+    <row r="228" spans="1:12">
       <c r="A228" s="6" t="s">
         <v>1461</v>
       </c>
@@ -22251,9 +23813,11 @@
       <c r="I228" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J228" s="8"/>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="J228" s="42"/>
+      <c r="K228" s="42"/>
+      <c r="L228" s="8"/>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229" s="6" t="s">
         <v>1464</v>
       </c>
@@ -22279,9 +23843,11 @@
       <c r="I229" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J229" s="8"/>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="J229" s="42"/>
+      <c r="K229" s="42"/>
+      <c r="L229" s="8"/>
+    </row>
+    <row r="230" spans="1:12">
       <c r="A230" s="6" t="s">
         <v>1467</v>
       </c>
@@ -22307,9 +23873,11 @@
       <c r="I230" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J230" s="8"/>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="J230" s="42"/>
+      <c r="K230" s="42"/>
+      <c r="L230" s="8"/>
+    </row>
+    <row r="231" spans="1:12">
       <c r="A231" s="6" t="s">
         <v>1470</v>
       </c>
@@ -22335,9 +23903,11 @@
       <c r="I231" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J231" s="8"/>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="J231" s="42"/>
+      <c r="K231" s="42"/>
+      <c r="L231" s="8"/>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232" s="6" t="s">
         <v>1473</v>
       </c>
@@ -22363,9 +23933,11 @@
       <c r="I232" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J232" s="8"/>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="J232" s="42"/>
+      <c r="K232" s="42"/>
+      <c r="L232" s="8"/>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233" s="6" t="s">
         <v>1476</v>
       </c>
@@ -22391,9 +23963,11 @@
       <c r="I233" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J233" s="8"/>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="J233" s="42"/>
+      <c r="K233" s="42"/>
+      <c r="L233" s="8"/>
+    </row>
+    <row r="234" spans="1:12">
       <c r="A234" s="6" t="s">
         <v>1479</v>
       </c>
@@ -22419,9 +23993,11 @@
       <c r="I234" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J234" s="8"/>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="J234" s="42"/>
+      <c r="K234" s="42"/>
+      <c r="L234" s="8"/>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235" s="6" t="s">
         <v>1482</v>
       </c>
@@ -22447,9 +24023,11 @@
       <c r="I235" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J235" s="8"/>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="J235" s="42"/>
+      <c r="K235" s="42"/>
+      <c r="L235" s="8"/>
+    </row>
+    <row r="236" spans="1:12">
       <c r="A236" s="6" t="s">
         <v>1486</v>
       </c>
@@ -22475,9 +24053,11 @@
       <c r="I236" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J236" s="8"/>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="J236" s="42"/>
+      <c r="K236" s="42"/>
+      <c r="L236" s="8"/>
+    </row>
+    <row r="237" spans="1:12">
       <c r="A237" s="6" t="s">
         <v>1489</v>
       </c>
@@ -22503,9 +24083,11 @@
       <c r="I237" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J237" s="8"/>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="J237" s="42"/>
+      <c r="K237" s="42"/>
+      <c r="L237" s="8"/>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238" s="6" t="s">
         <v>1492</v>
       </c>
@@ -22531,9 +24113,11 @@
       <c r="I238" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J238" s="8"/>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="J238" s="42"/>
+      <c r="K238" s="42"/>
+      <c r="L238" s="8"/>
+    </row>
+    <row r="239" spans="1:12">
       <c r="A239" s="6" t="s">
         <v>1495</v>
       </c>
@@ -22559,9 +24143,11 @@
       <c r="I239" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J239" s="8"/>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="J239" s="42"/>
+      <c r="K239" s="42"/>
+      <c r="L239" s="8"/>
+    </row>
+    <row r="240" spans="1:12">
       <c r="A240" s="6" t="s">
         <v>1498</v>
       </c>
@@ -22587,9 +24173,11 @@
       <c r="I240" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J240" s="8"/>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="J240" s="42"/>
+      <c r="K240" s="42"/>
+      <c r="L240" s="8"/>
+    </row>
+    <row r="241" spans="1:12">
       <c r="A241" s="6" t="s">
         <v>1501</v>
       </c>
@@ -22615,9 +24203,11 @@
       <c r="I241" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J241" s="8"/>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="J241" s="42"/>
+      <c r="K241" s="42"/>
+      <c r="L241" s="8"/>
+    </row>
+    <row r="242" spans="1:12">
       <c r="A242" s="6" t="s">
         <v>1504</v>
       </c>
@@ -22643,9 +24233,11 @@
       <c r="I242" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J242" s="8"/>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="J242" s="42"/>
+      <c r="K242" s="42"/>
+      <c r="L242" s="8"/>
+    </row>
+    <row r="243" spans="1:12">
       <c r="A243" s="6" t="s">
         <v>1507</v>
       </c>
@@ -22671,9 +24263,11 @@
       <c r="I243" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J243" s="8"/>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="J243" s="42"/>
+      <c r="K243" s="42"/>
+      <c r="L243" s="8"/>
+    </row>
+    <row r="244" spans="1:12">
       <c r="A244" s="6" t="s">
         <v>1510</v>
       </c>
@@ -22699,9 +24293,11 @@
       <c r="I244" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J244" s="8"/>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="J244" s="42"/>
+      <c r="K244" s="42"/>
+      <c r="L244" s="8"/>
+    </row>
+    <row r="245" spans="1:12">
       <c r="A245" s="6" t="s">
         <v>1513</v>
       </c>
@@ -22727,9 +24323,11 @@
       <c r="I245" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J245" s="8"/>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="J245" s="42"/>
+      <c r="K245" s="42"/>
+      <c r="L245" s="8"/>
+    </row>
+    <row r="246" spans="1:12">
       <c r="A246" s="6" t="s">
         <v>1516</v>
       </c>
@@ -22755,9 +24353,11 @@
       <c r="I246" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J246" s="8"/>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="J246" s="42"/>
+      <c r="K246" s="42"/>
+      <c r="L246" s="8"/>
+    </row>
+    <row r="247" spans="1:12">
       <c r="A247" s="6" t="s">
         <v>1519</v>
       </c>
@@ -22783,9 +24383,11 @@
       <c r="I247" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J247" s="8"/>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="J247" s="42"/>
+      <c r="K247" s="42"/>
+      <c r="L247" s="8"/>
+    </row>
+    <row r="248" spans="1:12">
       <c r="A248" s="6" t="s">
         <v>1523</v>
       </c>
@@ -22811,9 +24413,11 @@
       <c r="I248" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J248" s="8"/>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="J248" s="42"/>
+      <c r="K248" s="42"/>
+      <c r="L248" s="8"/>
+    </row>
+    <row r="249" spans="1:12">
       <c r="A249" s="6" t="s">
         <v>1526</v>
       </c>
@@ -22839,9 +24443,11 @@
       <c r="I249" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J249" s="8"/>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="J249" s="42"/>
+      <c r="K249" s="42"/>
+      <c r="L249" s="8"/>
+    </row>
+    <row r="250" spans="1:12">
       <c r="A250" s="6" t="s">
         <v>1529</v>
       </c>
@@ -22867,9 +24473,11 @@
       <c r="I250" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J250" s="8"/>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="J250" s="42"/>
+      <c r="K250" s="42"/>
+      <c r="L250" s="8"/>
+    </row>
+    <row r="251" spans="1:12">
       <c r="A251" s="6" t="s">
         <v>1532</v>
       </c>
@@ -22895,9 +24503,11 @@
       <c r="I251" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J251" s="8"/>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="J251" s="42"/>
+      <c r="K251" s="42"/>
+      <c r="L251" s="8"/>
+    </row>
+    <row r="252" spans="1:12">
       <c r="A252" s="6" t="s">
         <v>1535</v>
       </c>
@@ -22923,9 +24533,11 @@
       <c r="I252" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J252" s="8"/>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="J252" s="42"/>
+      <c r="K252" s="42"/>
+      <c r="L252" s="8"/>
+    </row>
+    <row r="253" spans="1:12">
       <c r="A253" s="6" t="s">
         <v>1538</v>
       </c>
@@ -22951,9 +24563,11 @@
       <c r="I253" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J253" s="8"/>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="J253" s="42"/>
+      <c r="K253" s="42"/>
+      <c r="L253" s="8"/>
+    </row>
+    <row r="254" spans="1:12">
       <c r="A254" s="6" t="s">
         <v>1541</v>
       </c>
@@ -22979,9 +24593,11 @@
       <c r="I254" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J254" s="8"/>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="J254" s="42"/>
+      <c r="K254" s="42"/>
+      <c r="L254" s="8"/>
+    </row>
+    <row r="255" spans="1:12">
       <c r="A255" s="6" t="s">
         <v>1544</v>
       </c>
@@ -23007,9 +24623,11 @@
       <c r="I255" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J255" s="8"/>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="J255" s="42"/>
+      <c r="K255" s="42"/>
+      <c r="L255" s="8"/>
+    </row>
+    <row r="256" spans="1:12">
       <c r="A256" s="6" t="s">
         <v>1547</v>
       </c>
@@ -23035,9 +24653,11 @@
       <c r="I256" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J256" s="8"/>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="J256" s="42"/>
+      <c r="K256" s="42"/>
+      <c r="L256" s="8"/>
+    </row>
+    <row r="257" spans="1:12">
       <c r="A257" s="6" t="s">
         <v>1550</v>
       </c>
@@ -23063,9 +24683,11 @@
       <c r="I257" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J257" s="8"/>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="J257" s="42"/>
+      <c r="K257" s="42"/>
+      <c r="L257" s="8"/>
+    </row>
+    <row r="258" spans="1:12">
       <c r="A258" s="6" t="s">
         <v>1553</v>
       </c>
@@ -23091,9 +24713,11 @@
       <c r="I258" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J258" s="8"/>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="J258" s="42"/>
+      <c r="K258" s="42"/>
+      <c r="L258" s="8"/>
+    </row>
+    <row r="259" spans="1:12">
       <c r="A259" s="6" t="s">
         <v>1556</v>
       </c>
@@ -23119,9 +24743,11 @@
       <c r="I259" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J259" s="8"/>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="J259" s="42"/>
+      <c r="K259" s="42"/>
+      <c r="L259" s="8"/>
+    </row>
+    <row r="260" spans="1:12">
       <c r="A260" s="6" t="s">
         <v>1560</v>
       </c>
@@ -23147,9 +24773,11 @@
       <c r="I260" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J260" s="8"/>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="J260" s="42"/>
+      <c r="K260" s="42"/>
+      <c r="L260" s="8"/>
+    </row>
+    <row r="261" spans="1:12">
       <c r="A261" s="6" t="s">
         <v>1563</v>
       </c>
@@ -23175,9 +24803,11 @@
       <c r="I261" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J261" s="8"/>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="J261" s="42"/>
+      <c r="K261" s="42"/>
+      <c r="L261" s="8"/>
+    </row>
+    <row r="262" spans="1:12">
       <c r="A262" s="6" t="s">
         <v>1566</v>
       </c>
@@ -23203,9 +24833,11 @@
       <c r="I262" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J262" s="8"/>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="J262" s="42"/>
+      <c r="K262" s="42"/>
+      <c r="L262" s="8"/>
+    </row>
+    <row r="263" spans="1:12">
       <c r="A263" s="6" t="s">
         <v>1569</v>
       </c>
@@ -23231,9 +24863,11 @@
       <c r="I263" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J263" s="8"/>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="J263" s="42"/>
+      <c r="K263" s="42"/>
+      <c r="L263" s="8"/>
+    </row>
+    <row r="264" spans="1:12">
       <c r="A264" s="6" t="s">
         <v>1572</v>
       </c>
@@ -23259,9 +24893,11 @@
       <c r="I264" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J264" s="8"/>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="J264" s="42"/>
+      <c r="K264" s="42"/>
+      <c r="L264" s="8"/>
+    </row>
+    <row r="265" spans="1:12">
       <c r="A265" s="6" t="s">
         <v>1575</v>
       </c>
@@ -23287,9 +24923,11 @@
       <c r="I265" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J265" s="8"/>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="J265" s="42"/>
+      <c r="K265" s="42"/>
+      <c r="L265" s="8"/>
+    </row>
+    <row r="266" spans="1:12">
       <c r="A266" s="6" t="s">
         <v>1578</v>
       </c>
@@ -23315,9 +24953,11 @@
       <c r="I266" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J266" s="8"/>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="J266" s="42"/>
+      <c r="K266" s="42"/>
+      <c r="L266" s="8"/>
+    </row>
+    <row r="267" spans="1:12">
       <c r="A267" s="6" t="s">
         <v>1581</v>
       </c>
@@ -23343,9 +24983,11 @@
       <c r="I267" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J267" s="8"/>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="J267" s="42"/>
+      <c r="K267" s="42"/>
+      <c r="L267" s="8"/>
+    </row>
+    <row r="268" spans="1:12">
       <c r="A268" s="6" t="s">
         <v>1584</v>
       </c>
@@ -23371,9 +25013,11 @@
       <c r="I268" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J268" s="8"/>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="J268" s="42"/>
+      <c r="K268" s="42"/>
+      <c r="L268" s="8"/>
+    </row>
+    <row r="269" spans="1:12">
       <c r="A269" s="6" t="s">
         <v>1587</v>
       </c>
@@ -23399,9 +25043,11 @@
       <c r="I269" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J269" s="8"/>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="J269" s="42"/>
+      <c r="K269" s="42"/>
+      <c r="L269" s="8"/>
+    </row>
+    <row r="270" spans="1:12">
       <c r="A270" s="6" t="s">
         <v>1590</v>
       </c>
@@ -23427,9 +25073,11 @@
       <c r="I270" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J270" s="8"/>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="J270" s="42"/>
+      <c r="K270" s="42"/>
+      <c r="L270" s="8"/>
+    </row>
+    <row r="271" spans="1:12">
       <c r="A271" s="6" t="s">
         <v>1593</v>
       </c>
@@ -23455,9 +25103,11 @@
       <c r="I271" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J271" s="8"/>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="J271" s="42"/>
+      <c r="K271" s="42"/>
+      <c r="L271" s="8"/>
+    </row>
+    <row r="272" spans="1:12">
       <c r="A272" s="6" t="s">
         <v>1597</v>
       </c>
@@ -23483,9 +25133,11 @@
       <c r="I272" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J272" s="8"/>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="J272" s="42"/>
+      <c r="K272" s="42"/>
+      <c r="L272" s="8"/>
+    </row>
+    <row r="273" spans="1:12">
       <c r="A273" s="6" t="s">
         <v>1600</v>
       </c>
@@ -23511,9 +25163,11 @@
       <c r="I273" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J273" s="8"/>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="J273" s="42"/>
+      <c r="K273" s="42"/>
+      <c r="L273" s="8"/>
+    </row>
+    <row r="274" spans="1:12">
       <c r="A274" s="6" t="s">
         <v>1603</v>
       </c>
@@ -23539,9 +25193,11 @@
       <c r="I274" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J274" s="8"/>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="J274" s="42"/>
+      <c r="K274" s="42"/>
+      <c r="L274" s="8"/>
+    </row>
+    <row r="275" spans="1:12">
       <c r="A275" s="6" t="s">
         <v>1606</v>
       </c>
@@ -23567,9 +25223,11 @@
       <c r="I275" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J275" s="8"/>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="J275" s="42"/>
+      <c r="K275" s="42"/>
+      <c r="L275" s="8"/>
+    </row>
+    <row r="276" spans="1:12">
       <c r="A276" s="6" t="s">
         <v>1609</v>
       </c>
@@ -23595,9 +25253,11 @@
       <c r="I276" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J276" s="8"/>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="J276" s="42"/>
+      <c r="K276" s="42"/>
+      <c r="L276" s="8"/>
+    </row>
+    <row r="277" spans="1:12">
       <c r="A277" s="6" t="s">
         <v>1612</v>
       </c>
@@ -23623,9 +25283,11 @@
       <c r="I277" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J277" s="8"/>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="J277" s="42"/>
+      <c r="K277" s="42"/>
+      <c r="L277" s="8"/>
+    </row>
+    <row r="278" spans="1:12">
       <c r="A278" s="6" t="s">
         <v>1616</v>
       </c>
@@ -23651,9 +25313,11 @@
       <c r="I278" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="J278" s="8"/>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="J278" s="42"/>
+      <c r="K278" s="42"/>
+      <c r="L278" s="8"/>
+    </row>
+    <row r="279" spans="1:12">
       <c r="A279" s="6" t="s">
         <v>1619</v>
       </c>
@@ -23679,9 +25343,11 @@
       <c r="I279" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="J279" s="8"/>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="J279" s="42"/>
+      <c r="K279" s="42"/>
+      <c r="L279" s="8"/>
+    </row>
+    <row r="280" spans="1:12">
       <c r="A280" s="6" t="s">
         <v>1622</v>
       </c>
@@ -23707,9 +25373,11 @@
       <c r="I280" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="J280" s="8"/>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="J280" s="42"/>
+      <c r="K280" s="42"/>
+      <c r="L280" s="8"/>
+    </row>
+    <row r="281" spans="1:12">
       <c r="A281" s="6" t="s">
         <v>1625</v>
       </c>
@@ -23735,9 +25403,11 @@
       <c r="I281" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J281" s="8"/>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="J281" s="42"/>
+      <c r="K281" s="42"/>
+      <c r="L281" s="8"/>
+    </row>
+    <row r="282" spans="1:12">
       <c r="A282" s="6" t="s">
         <v>1628</v>
       </c>
@@ -23763,9 +25433,11 @@
       <c r="I282" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="J282" s="8"/>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="J282" s="42"/>
+      <c r="K282" s="42"/>
+      <c r="L282" s="8"/>
+    </row>
+    <row r="283" spans="1:12">
       <c r="A283" s="6"/>
       <c r="B283" s="7"/>
       <c r="C283" s="6"/>
@@ -23775,9 +25447,11 @@
       <c r="G283" s="6"/>
       <c r="H283" s="6"/>
       <c r="I283" s="6"/>
-      <c r="J283" s="6"/>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="J283" s="9"/>
+      <c r="K283" s="9"/>
+      <c r="L283" s="6"/>
+    </row>
+    <row r="284" spans="1:12">
       <c r="A284" s="6"/>
       <c r="B284" s="7"/>
       <c r="C284" s="6"/>
@@ -23787,9 +25461,11 @@
       <c r="G284" s="6"/>
       <c r="H284" s="6"/>
       <c r="I284" s="6"/>
-      <c r="J284" s="6"/>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="J284" s="9"/>
+      <c r="K284" s="9"/>
+      <c r="L284" s="6"/>
+    </row>
+    <row r="285" spans="1:12">
       <c r="A285" s="6"/>
       <c r="B285" s="7"/>
       <c r="C285" s="6"/>
@@ -23799,9 +25475,11 @@
       <c r="G285" s="6"/>
       <c r="H285" s="6"/>
       <c r="I285" s="6"/>
-      <c r="J285" s="6"/>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="J285" s="9"/>
+      <c r="K285" s="9"/>
+      <c r="L285" s="6"/>
+    </row>
+    <row r="286" spans="1:12">
       <c r="A286" s="6"/>
       <c r="B286" s="7"/>
       <c r="C286" s="6"/>
@@ -23811,9 +25489,11 @@
       <c r="G286" s="6"/>
       <c r="H286" s="6"/>
       <c r="I286" s="6"/>
-      <c r="J286" s="6"/>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="J286" s="9"/>
+      <c r="K286" s="9"/>
+      <c r="L286" s="6"/>
+    </row>
+    <row r="287" spans="1:12">
       <c r="A287" s="6"/>
       <c r="B287" s="7"/>
       <c r="C287" s="6"/>
@@ -23823,9 +25503,11 @@
       <c r="G287" s="6"/>
       <c r="H287" s="6"/>
       <c r="I287" s="6"/>
-      <c r="J287" s="6"/>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="J287" s="9"/>
+      <c r="K287" s="9"/>
+      <c r="L287" s="6"/>
+    </row>
+    <row r="288" spans="1:12">
       <c r="A288" s="6"/>
       <c r="B288" s="7"/>
       <c r="C288" s="6"/>
@@ -23835,9 +25517,11 @@
       <c r="G288" s="6"/>
       <c r="H288" s="6"/>
       <c r="I288" s="6"/>
-      <c r="J288" s="6"/>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="J288" s="9"/>
+      <c r="K288" s="9"/>
+      <c r="L288" s="6"/>
+    </row>
+    <row r="289" spans="1:12">
       <c r="A289" s="6"/>
       <c r="B289" s="7"/>
       <c r="C289" s="6"/>
@@ -23847,9 +25531,11 @@
       <c r="G289" s="6"/>
       <c r="H289" s="6"/>
       <c r="I289" s="6"/>
-      <c r="J289" s="6"/>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="J289" s="9"/>
+      <c r="K289" s="9"/>
+      <c r="L289" s="6"/>
+    </row>
+    <row r="290" spans="1:12">
       <c r="A290" s="6"/>
       <c r="B290" s="7"/>
       <c r="C290" s="6"/>
@@ -23859,9 +25545,11 @@
       <c r="G290" s="6"/>
       <c r="H290" s="6"/>
       <c r="I290" s="6"/>
-      <c r="J290" s="6"/>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="J290" s="9"/>
+      <c r="K290" s="9"/>
+      <c r="L290" s="6"/>
+    </row>
+    <row r="291" spans="1:12">
       <c r="A291" s="6"/>
       <c r="B291" s="7"/>
       <c r="C291" s="6"/>
@@ -23871,9 +25559,11 @@
       <c r="G291" s="6"/>
       <c r="H291" s="6"/>
       <c r="I291" s="6"/>
-      <c r="J291" s="6"/>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="J291" s="9"/>
+      <c r="K291" s="9"/>
+      <c r="L291" s="6"/>
+    </row>
+    <row r="292" spans="1:12">
       <c r="A292" s="6"/>
       <c r="B292" s="7"/>
       <c r="C292" s="6"/>
@@ -23883,9 +25573,11 @@
       <c r="G292" s="6"/>
       <c r="H292" s="6"/>
       <c r="I292" s="6"/>
-      <c r="J292" s="6"/>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="J292" s="9"/>
+      <c r="K292" s="9"/>
+      <c r="L292" s="6"/>
+    </row>
+    <row r="293" spans="1:12">
       <c r="A293" s="6"/>
       <c r="B293" s="7"/>
       <c r="C293" s="6"/>
@@ -23895,9 +25587,11 @@
       <c r="G293" s="6"/>
       <c r="H293" s="6"/>
       <c r="I293" s="6"/>
-      <c r="J293" s="6"/>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="J293" s="9"/>
+      <c r="K293" s="9"/>
+      <c r="L293" s="6"/>
+    </row>
+    <row r="294" spans="1:12">
       <c r="A294" s="6"/>
       <c r="B294" s="7"/>
       <c r="C294" s="6"/>
@@ -23907,9 +25601,11 @@
       <c r="G294" s="6"/>
       <c r="H294" s="6"/>
       <c r="I294" s="6"/>
-      <c r="J294" s="6"/>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="J294" s="9"/>
+      <c r="K294" s="9"/>
+      <c r="L294" s="6"/>
+    </row>
+    <row r="295" spans="1:12">
       <c r="A295" s="6"/>
       <c r="B295" s="7"/>
       <c r="C295" s="6"/>
@@ -23919,9 +25615,11 @@
       <c r="G295" s="6"/>
       <c r="H295" s="6"/>
       <c r="I295" s="6"/>
-      <c r="J295" s="6"/>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="J295" s="9"/>
+      <c r="K295" s="9"/>
+      <c r="L295" s="6"/>
+    </row>
+    <row r="296" spans="1:12">
       <c r="A296" s="6"/>
       <c r="B296" s="7"/>
       <c r="C296" s="6"/>
@@ -23931,9 +25629,11 @@
       <c r="G296" s="6"/>
       <c r="H296" s="6"/>
       <c r="I296" s="6"/>
-      <c r="J296" s="6"/>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="J296" s="9"/>
+      <c r="K296" s="9"/>
+      <c r="L296" s="6"/>
+    </row>
+    <row r="297" spans="1:12">
       <c r="A297" s="6"/>
       <c r="B297" s="7"/>
       <c r="C297" s="6"/>
@@ -23943,9 +25643,11 @@
       <c r="G297" s="6"/>
       <c r="H297" s="6"/>
       <c r="I297" s="6"/>
-      <c r="J297" s="6"/>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="J297" s="9"/>
+      <c r="K297" s="9"/>
+      <c r="L297" s="6"/>
+    </row>
+    <row r="298" spans="1:12">
       <c r="A298" s="6"/>
       <c r="B298" s="7"/>
       <c r="C298" s="6"/>
@@ -23955,9 +25657,11 @@
       <c r="G298" s="6"/>
       <c r="H298" s="6"/>
       <c r="I298" s="6"/>
-      <c r="J298" s="6"/>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="J298" s="9"/>
+      <c r="K298" s="9"/>
+      <c r="L298" s="6"/>
+    </row>
+    <row r="299" spans="1:12">
       <c r="A299" s="6"/>
       <c r="B299" s="7"/>
       <c r="C299" s="6"/>
@@ -23967,9 +25671,11 @@
       <c r="G299" s="6"/>
       <c r="H299" s="6"/>
       <c r="I299" s="6"/>
-      <c r="J299" s="6"/>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="J299" s="9"/>
+      <c r="K299" s="9"/>
+      <c r="L299" s="6"/>
+    </row>
+    <row r="300" spans="1:12">
       <c r="A300" s="6"/>
       <c r="B300" s="7"/>
       <c r="C300" s="6"/>
@@ -23979,9 +25685,11 @@
       <c r="G300" s="6"/>
       <c r="H300" s="6"/>
       <c r="I300" s="6"/>
-      <c r="J300" s="6"/>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="J300" s="9"/>
+      <c r="K300" s="9"/>
+      <c r="L300" s="6"/>
+    </row>
+    <row r="301" spans="1:12">
       <c r="A301" s="6"/>
       <c r="B301" s="7"/>
       <c r="C301" s="6"/>
@@ -23991,9 +25699,11 @@
       <c r="G301" s="6"/>
       <c r="H301" s="6"/>
       <c r="I301" s="6"/>
-      <c r="J301" s="6"/>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="J301" s="9"/>
+      <c r="K301" s="9"/>
+      <c r="L301" s="6"/>
+    </row>
+    <row r="302" spans="1:12">
       <c r="A302" s="6"/>
       <c r="B302" s="7"/>
       <c r="C302" s="6"/>
@@ -24003,9 +25713,11 @@
       <c r="G302" s="6"/>
       <c r="H302" s="6"/>
       <c r="I302" s="6"/>
-      <c r="J302" s="6"/>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="J302" s="9"/>
+      <c r="K302" s="9"/>
+      <c r="L302" s="6"/>
+    </row>
+    <row r="303" spans="1:12">
       <c r="A303" s="6"/>
       <c r="B303" s="7"/>
       <c r="C303" s="6"/>
@@ -24015,9 +25727,11 @@
       <c r="G303" s="6"/>
       <c r="H303" s="6"/>
       <c r="I303" s="6"/>
-      <c r="J303" s="6"/>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="J303" s="9"/>
+      <c r="K303" s="9"/>
+      <c r="L303" s="6"/>
+    </row>
+    <row r="304" spans="1:12">
       <c r="A304" s="6"/>
       <c r="B304" s="7"/>
       <c r="C304" s="6"/>
@@ -24027,9 +25741,11 @@
       <c r="G304" s="6"/>
       <c r="H304" s="6"/>
       <c r="I304" s="6"/>
-      <c r="J304" s="6"/>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="J304" s="9"/>
+      <c r="K304" s="9"/>
+      <c r="L304" s="6"/>
+    </row>
+    <row r="305" spans="1:12">
       <c r="A305" s="6"/>
       <c r="B305" s="7"/>
       <c r="C305" s="6"/>
@@ -24039,9 +25755,11 @@
       <c r="G305" s="6"/>
       <c r="H305" s="6"/>
       <c r="I305" s="6"/>
-      <c r="J305" s="6"/>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="J305" s="9"/>
+      <c r="K305" s="9"/>
+      <c r="L305" s="6"/>
+    </row>
+    <row r="306" spans="1:12">
       <c r="A306" s="6"/>
       <c r="B306" s="7"/>
       <c r="C306" s="6"/>
@@ -24051,9 +25769,11 @@
       <c r="G306" s="6"/>
       <c r="H306" s="6"/>
       <c r="I306" s="6"/>
-      <c r="J306" s="6"/>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="J306" s="9"/>
+      <c r="K306" s="9"/>
+      <c r="L306" s="6"/>
+    </row>
+    <row r="307" spans="1:12">
       <c r="A307" s="6"/>
       <c r="B307" s="7"/>
       <c r="C307" s="6"/>
@@ -24063,9 +25783,11 @@
       <c r="G307" s="6"/>
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
-      <c r="J307" s="6"/>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="J307" s="9"/>
+      <c r="K307" s="9"/>
+      <c r="L307" s="6"/>
+    </row>
+    <row r="308" spans="1:12">
       <c r="A308" s="6"/>
       <c r="B308" s="7"/>
       <c r="C308" s="6"/>
@@ -24075,9 +25797,11 @@
       <c r="G308" s="6"/>
       <c r="H308" s="6"/>
       <c r="I308" s="6"/>
-      <c r="J308" s="6"/>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="J308" s="9"/>
+      <c r="K308" s="9"/>
+      <c r="L308" s="6"/>
+    </row>
+    <row r="309" spans="1:12">
       <c r="A309" s="6"/>
       <c r="B309" s="7"/>
       <c r="C309" s="6"/>
@@ -24087,9 +25811,11 @@
       <c r="G309" s="6"/>
       <c r="H309" s="6"/>
       <c r="I309" s="6"/>
-      <c r="J309" s="6"/>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="J309" s="9"/>
+      <c r="K309" s="9"/>
+      <c r="L309" s="6"/>
+    </row>
+    <row r="310" spans="1:12">
       <c r="A310" s="6"/>
       <c r="B310" s="7"/>
       <c r="C310" s="6"/>
@@ -24099,9 +25825,11 @@
       <c r="G310" s="6"/>
       <c r="H310" s="6"/>
       <c r="I310" s="6"/>
-      <c r="J310" s="6"/>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="J310" s="9"/>
+      <c r="K310" s="9"/>
+      <c r="L310" s="6"/>
+    </row>
+    <row r="311" spans="1:12">
       <c r="A311" s="6"/>
       <c r="B311" s="7"/>
       <c r="C311" s="6"/>
@@ -24111,9 +25839,11 @@
       <c r="G311" s="6"/>
       <c r="H311" s="6"/>
       <c r="I311" s="6"/>
-      <c r="J311" s="6"/>
-    </row>
-    <row r="312" spans="1:10">
+      <c r="J311" s="9"/>
+      <c r="K311" s="9"/>
+      <c r="L311" s="6"/>
+    </row>
+    <row r="312" spans="1:12">
       <c r="A312" s="6"/>
       <c r="B312" s="7"/>
       <c r="C312" s="6"/>
@@ -24123,9 +25853,11 @@
       <c r="G312" s="6"/>
       <c r="H312" s="6"/>
       <c r="I312" s="6"/>
-      <c r="J312" s="6"/>
-    </row>
-    <row r="313" spans="1:10">
+      <c r="J312" s="9"/>
+      <c r="K312" s="9"/>
+      <c r="L312" s="6"/>
+    </row>
+    <row r="313" spans="1:12">
       <c r="A313" s="6"/>
       <c r="B313" s="7"/>
       <c r="C313" s="6"/>
@@ -24135,9 +25867,11 @@
       <c r="G313" s="6"/>
       <c r="H313" s="6"/>
       <c r="I313" s="6"/>
-      <c r="J313" s="6"/>
-    </row>
-    <row r="314" spans="1:10">
+      <c r="J313" s="9"/>
+      <c r="K313" s="9"/>
+      <c r="L313" s="6"/>
+    </row>
+    <row r="314" spans="1:12">
       <c r="A314" s="6"/>
       <c r="B314" s="7"/>
       <c r="C314" s="6"/>
@@ -24147,20 +25881,22 @@
       <c r="G314" s="6"/>
       <c r="H314" s="6"/>
       <c r="I314" s="6"/>
-      <c r="J314" s="6"/>
+      <c r="J314" s="9"/>
+      <c r="K314" s="9"/>
+      <c r="L314" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D42 D43:D60 D61:D282" xr:uid="{00000000-0002-0000-0400-000000000000}">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D282" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"ProNode,House,Furniture,Interact"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L1" location="Catalog_目录!A1" display="Back" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="N1" location="Catalog_目录!A1" display="Back" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24170,22 +25906,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F294"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="30.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="51" style="26" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="0.875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="0.88671875" style="26" customWidth="1"/>
     <col min="6" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25">
+    <row r="1" spans="1:6" ht="20.399999999999999">
       <c r="A1" s="35" t="s">
         <v>33</v>
       </c>
@@ -24298,7 +26034,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="24">
       <c r="A10" s="6" t="s">
         <v>1643</v>
       </c>
@@ -24322,7 +26058,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="24">
       <c r="A12" s="6" t="s">
         <v>1647</v>
       </c>
@@ -24358,7 +26094,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="24">
       <c r="A15" s="6" t="s">
         <v>1653</v>
       </c>
@@ -24370,7 +26106,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="24">
       <c r="A16" s="6" t="s">
         <v>1655</v>
       </c>
@@ -24382,7 +26118,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="24">
       <c r="A17" s="6" t="s">
         <v>1657</v>
       </c>
@@ -24394,7 +26130,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="24">
       <c r="A18" s="6" t="s">
         <v>1659</v>
       </c>
@@ -24418,7 +26154,7 @@
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="24">
       <c r="A20" s="6" t="s">
         <v>1663</v>
       </c>
@@ -24466,7 +26202,7 @@
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="24">
       <c r="A24" s="6" t="s">
         <v>1671</v>
       </c>
@@ -24478,7 +26214,7 @@
       </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="24">
       <c r="A25" s="6" t="s">
         <v>1673</v>
       </c>
@@ -24490,7 +26226,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="24">
       <c r="A26" s="6" t="s">
         <v>1675</v>
       </c>
@@ -24502,7 +26238,7 @@
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="24">
       <c r="A27" s="6" t="s">
         <v>1677</v>
       </c>
@@ -24514,7 +26250,7 @@
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="24">
       <c r="A28" s="6" t="s">
         <v>1679</v>
       </c>
@@ -24574,7 +26310,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" ht="24">
       <c r="A33" s="6" t="s">
         <v>1689</v>
       </c>
@@ -24586,7 +26322,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="24">
       <c r="A34" s="6" t="s">
         <v>1691</v>
       </c>
@@ -24598,7 +26334,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" ht="24">
       <c r="A35" s="6" t="s">
         <v>1693</v>
       </c>
@@ -24634,7 +26370,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" ht="24">
       <c r="A38" s="6" t="s">
         <v>1698</v>
       </c>
@@ -24646,7 +26382,7 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" ht="24">
       <c r="A39" s="6" t="s">
         <v>1699</v>
       </c>
@@ -24658,7 +26394,7 @@
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" ht="24">
       <c r="A40" s="6" t="s">
         <v>1701</v>
       </c>
@@ -26198,7 +27934,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F1" location="Catalog_目录!A1" display="Back" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
@@ -26210,27 +27946,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="24.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="0.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
+    <row r="1" spans="1:11" ht="20.399999999999999">
       <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
@@ -26408,7 +28144,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="24">
       <c r="A8" s="6" t="s">
         <v>1718</v>
       </c>
@@ -26435,7 +28171,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="24">
       <c r="A9" s="6" t="s">
         <v>1722</v>
       </c>
@@ -26462,7 +28198,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="24">
       <c r="A10" s="6" t="s">
         <v>1725</v>
       </c>
@@ -26489,7 +28225,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="24">
       <c r="A11" s="6" t="s">
         <v>1728</v>
       </c>
@@ -26516,7 +28252,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="24">
       <c r="A12" s="6" t="s">
         <v>381</v>
       </c>
@@ -26543,7 +28279,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="24">
       <c r="A13" s="6" t="s">
         <v>399</v>
       </c>
@@ -26570,7 +28306,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="24">
       <c r="A14" s="6" t="s">
         <v>369</v>
       </c>
@@ -26597,7 +28333,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="24">
       <c r="A15" s="6" t="s">
         <v>375</v>
       </c>
@@ -26624,7 +28360,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="24">
       <c r="A16" s="6" t="s">
         <v>1739</v>
       </c>
@@ -26651,7 +28387,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="24">
       <c r="A17" s="6" t="s">
         <v>1742</v>
       </c>
@@ -26678,7 +28414,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="24">
       <c r="A18" s="6" t="s">
         <v>363</v>
       </c>
@@ -26705,7 +28441,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="24">
       <c r="A19" s="6" t="s">
         <v>1747</v>
       </c>
@@ -26732,7 +28468,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="24">
       <c r="A20" s="6" t="s">
         <v>387</v>
       </c>
@@ -26759,7 +28495,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="24">
       <c r="A21" s="6" t="s">
         <v>393</v>
       </c>
@@ -26786,7 +28522,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="24">
       <c r="A22" s="6" t="s">
         <v>405</v>
       </c>
@@ -26813,7 +28549,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="24">
       <c r="A23" s="23" t="s">
         <v>1756</v>
       </c>
@@ -26840,7 +28576,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="24">
       <c r="A24" s="23" t="s">
         <v>1759</v>
       </c>
@@ -29134,7 +30870,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C100" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"WaterCollector,WaterPurifier,SeedBox,Integrator,SeedPlot,Detector,Refine,Sawn,Textile,Aggregator,Processor,Kitchen,Calculus"</formula1>
@@ -29161,19 +30897,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="25.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" style="18" customWidth="1"/>
-    <col min="10" max="10" width="0.875" style="18" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="18"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="18"/>
     <col min="12" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
+    <row r="1" spans="1:11" ht="20.399999999999999">
       <c r="A1" s="38" t="s">
         <v>15</v>
       </c>
@@ -29276,7 +31012,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="24">
       <c r="A5" s="6" t="s">
         <v>2030</v>
       </c>
@@ -29696,7 +31432,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="24">
       <c r="A20" s="6" t="s">
         <v>2077</v>
       </c>
@@ -29724,7 +31460,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="24">
       <c r="A21" s="6" t="s">
         <v>2081</v>
       </c>
@@ -29752,7 +31488,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="24">
       <c r="A22" s="6" t="s">
         <v>2084</v>
       </c>
@@ -29780,7 +31516,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="24">
       <c r="A23" s="6" t="s">
         <v>2087</v>
       </c>
@@ -29892,7 +31628,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="24">
       <c r="A27" s="6" t="s">
         <v>2100</v>
       </c>
@@ -29920,7 +31656,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" ht="24">
       <c r="A28" s="6" t="s">
         <v>2102</v>
       </c>
@@ -29948,7 +31684,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="24">
       <c r="A29" s="6" t="s">
         <v>2104</v>
       </c>
@@ -30284,7 +32020,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" ht="24">
       <c r="A41" s="6" t="s">
         <v>2134</v>
       </c>
@@ -30312,7 +32048,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" ht="24">
       <c r="A42" s="6" t="s">
         <v>2136</v>
       </c>
@@ -30340,7 +32076,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" ht="24">
       <c r="A43" s="6" t="s">
         <v>2138</v>
       </c>
@@ -30368,7 +32104,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" ht="24">
       <c r="A44" s="6" t="s">
         <v>2140</v>
       </c>
@@ -30396,7 +32132,7 @@
       <c r="I44" s="6"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" ht="24">
       <c r="A45" s="6" t="s">
         <v>2142</v>
       </c>
@@ -30424,7 +32160,7 @@
       <c r="I45" s="6"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" ht="24">
       <c r="A46" s="6" t="s">
         <v>2145</v>
       </c>
@@ -30452,7 +32188,7 @@
       <c r="I46" s="6"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" ht="24">
       <c r="A47" s="6" t="s">
         <v>2147</v>
       </c>
@@ -30564,7 +32300,7 @@
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" ht="24">
       <c r="A51" s="6" t="s">
         <v>2156</v>
       </c>
@@ -30592,7 +32328,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" ht="24">
       <c r="A52" s="6" t="s">
         <v>2159</v>
       </c>
@@ -30620,7 +32356,7 @@
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" ht="24">
       <c r="A53" s="6" t="s">
         <v>2161</v>
       </c>
@@ -30648,7 +32384,7 @@
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" ht="24">
       <c r="A54" s="6" t="s">
         <v>2165</v>
       </c>
@@ -31124,7 +32860,7 @@
       <c r="I70" s="6"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" ht="24">
       <c r="A71" s="6" t="s">
         <v>2208</v>
       </c>
@@ -31236,7 +32972,7 @@
       <c r="I74" s="6"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" ht="24">
       <c r="A75" s="6" t="s">
         <v>2219</v>
       </c>
@@ -31292,7 +33028,7 @@
       <c r="I76" s="6"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" ht="24">
       <c r="A77" s="6" t="s">
         <v>2225</v>
       </c>
@@ -31320,7 +33056,7 @@
       <c r="I77" s="6"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" ht="24">
       <c r="A78" s="6" t="s">
         <v>2228</v>
       </c>
@@ -31404,7 +33140,7 @@
       <c r="I80" s="6"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" ht="24">
       <c r="A81" s="6" t="s">
         <v>2236</v>
       </c>
@@ -31432,7 +33168,7 @@
       <c r="I81" s="6"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" ht="24">
       <c r="A82" s="6" t="s">
         <v>2240</v>
       </c>
@@ -31460,7 +33196,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" ht="24">
       <c r="A83" s="6" t="s">
         <v>2243</v>
       </c>
@@ -31488,7 +33224,7 @@
       <c r="I83" s="6"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" ht="24">
+    <row r="84" spans="1:10" ht="36">
       <c r="A84" s="6" t="s">
         <v>2245</v>
       </c>
@@ -31516,7 +33252,7 @@
       <c r="I84" s="6"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" ht="24">
       <c r="A85" s="6" t="s">
         <v>2248</v>
       </c>
@@ -31544,7 +33280,7 @@
       <c r="I85" s="6"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" ht="24">
       <c r="A86" s="6" t="s">
         <v>2250</v>
       </c>
@@ -31572,7 +33308,7 @@
       <c r="I86" s="6"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" ht="24">
       <c r="A87" s="6" t="s">
         <v>2252</v>
       </c>
@@ -31600,7 +33336,7 @@
       <c r="I87" s="6"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" ht="24">
       <c r="A88" s="6" t="s">
         <v>2254</v>
       </c>
@@ -31628,7 +33364,7 @@
       <c r="I88" s="6"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" ht="24">
       <c r="A89" s="6" t="s">
         <v>2257</v>
       </c>
@@ -31656,7 +33392,7 @@
       <c r="I89" s="6"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" ht="24">
       <c r="A90" s="6" t="s">
         <v>2260</v>
       </c>
@@ -31684,7 +33420,7 @@
       <c r="I90" s="6"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" ht="24">
       <c r="A91" s="6" t="s">
         <v>2263</v>
       </c>
@@ -31712,7 +33448,7 @@
       <c r="I91" s="6"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" ht="24">
       <c r="A92" s="6" t="s">
         <v>2266</v>
       </c>
@@ -31740,7 +33476,7 @@
       <c r="I92" s="6"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" ht="24">
       <c r="A93" s="6" t="s">
         <v>2269</v>
       </c>
@@ -31768,7 +33504,7 @@
       <c r="I93" s="6"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" ht="24">
       <c r="A94" s="6" t="s">
         <v>2272</v>
       </c>
@@ -31796,7 +33532,7 @@
       <c r="I94" s="6"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" ht="24">
       <c r="A95" s="6" t="s">
         <v>2274</v>
       </c>
@@ -31824,7 +33560,7 @@
       <c r="I95" s="6"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" ht="24">
       <c r="A96" s="6" t="s">
         <v>2276</v>
       </c>
@@ -31852,7 +33588,7 @@
       <c r="I96" s="6"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" ht="24">
       <c r="A97" s="6" t="s">
         <v>2278</v>
       </c>
@@ -31880,7 +33616,7 @@
       <c r="I97" s="6"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" ht="24">
       <c r="A98" s="6" t="s">
         <v>2280</v>
       </c>
@@ -31908,7 +33644,7 @@
       <c r="I98" s="6"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" ht="24">
       <c r="A99" s="6" t="s">
         <v>2282</v>
       </c>
@@ -32121,7 +33857,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C5 C6 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C24 C25 C26 C27 C28 C29 C30 C31 C37 C38 C39 C40 C41 C42 C46 C47 C48 C51 C52 C53 C56 C57 C60 C61 C62 C67 C68 C69 C70 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C7:C8 C9:C10 C22:C23 C32:C36 C43:C45 C49:C50 C54:C55 C58:C59 C63:C64 C65:C66 C71:C74 C101:C104 C105:C112 C113:C115 C116:C1048576" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"Food,Material,Mission"</formula1>
@@ -32146,21 +33882,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="21.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="0.875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="15" customWidth="1"/>
+    <col min="11" max="11" width="0.88671875" style="15" customWidth="1"/>
     <col min="12" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25">
+    <row r="1" spans="1:12" ht="20.399999999999999">
       <c r="A1" s="32" t="s">
         <v>18</v>
       </c>
@@ -32351,7 +34087,7 @@
       </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="24">
       <c r="A8" s="8" t="s">
         <v>2302</v>
       </c>
@@ -32405,7 +34141,7 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="24">
       <c r="A10" s="8" t="s">
         <v>2311</v>
       </c>
@@ -32493,7 +34229,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L1" location="Catalog_目录!A1" display="Back" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>

--- a/ExternProject/_EXE/DataToBinary/DataTable/Config_OC_数据表.xlsx
+++ b/ExternProject/_EXE/DataToBinary/DataTable/Config_OC_数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21228" windowHeight="9780" tabRatio="837" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="21228" windowHeight="9780" tabRatio="837" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Catalog_目录" sheetId="1" r:id="rId1"/>
@@ -11570,10 +11570,10 @@
   <sheetPr/>
   <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
+      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -24666,7 +24666,7 @@
   <sheetPr/>
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="O73" sqref="O73"/>

--- a/ExternProject/_EXE/DataToBinary/DataTable/Config_OC_数据表.xlsx
+++ b/ExternProject/_EXE/DataToBinary/DataTable/Config_OC_数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21228" windowHeight="9780" tabRatio="837" firstSheet="1" activeTab="3"/>
+    <workbookView windowHeight="17655" tabRatio="837" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Catalog_目录" sheetId="1" r:id="rId1"/>
@@ -5834,7 +5834,24 @@
     <t>光珀晶簇</t>
   </si>
   <si>
-    <t>Item_Material_81,2;</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="思源黑体 Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Item_Material_81,2;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF85208"/>
+        <rFont val="思源黑体 Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>某种药物</t>
+    </r>
   </si>
   <si>
     <t>Item_Material_82,1</t>
@@ -5843,7 +5860,24 @@
     <t>光珀晶块</t>
   </si>
   <si>
-    <t>Item_Material_82,2;</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="思源黑体 Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Item_Material_82,2;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF85208"/>
+        <rFont val="思源黑体 Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>某种药物</t>
+    </r>
   </si>
   <si>
     <t>Item_Material_83,1</t>
@@ -8416,7 +8450,7 @@
       <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="7.33333333333333" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.6666666666667" style="1" customWidth="1"/>
@@ -8424,7 +8458,7 @@
     <col min="5" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:4">
+    <row r="1" ht="26.25" spans="1:4">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -8604,21 +8638,21 @@
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.77777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.21296296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.212962962963" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21296296296296" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.775" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.21666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.2166666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.775" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.6666666666667" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.1111111111111" style="3" customWidth="1"/>
-    <col min="9" max="9" width="0.87962962962963" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.1083333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="0.883333333333333" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:10">
+    <row r="1" ht="26.25" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>2325</v>
       </c>
@@ -8804,19 +8838,19 @@
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="24.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.7777777777778" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.775" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1083333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="0.87962962962963" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.87962962962963" style="3"/>
+    <col min="6" max="6" width="0.883333333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.88333333333333" style="3"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:7">
+    <row r="1" ht="26.25" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -9001,29 +9035,29 @@
   <sheetPr/>
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="24.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.8833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.6666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.212962962963" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7777777777778" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.2166666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.4416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.775" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.4416666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.3333333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7777777777778" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1111111111111" style="1" customWidth="1"/>
-    <col min="11" max="11" width="0.87962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.775" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1083333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="0.883333333333333" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:12">
+    <row r="1" ht="26.25" spans="1:12">
       <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
@@ -10998,17 +11032,17 @@
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="24.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.8833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.6666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.4444444444444" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1111111111111" style="1" customWidth="1"/>
-    <col min="5" max="5" width="0.87962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="0.883333333333333" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:6">
+    <row r="1" ht="26.25" spans="1:6">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -11570,34 +11604,34 @@
   <sheetPr/>
   <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
+      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="29.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.4444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.775" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.1083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.4416666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.3333333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.33333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.212962962963" style="3" customWidth="1"/>
-    <col min="8" max="8" width="33.7777777777778" style="3" customWidth="1"/>
-    <col min="9" max="9" width="33.1111111111111" style="3" customWidth="1"/>
-    <col min="10" max="10" width="24.1111111111111" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.7777777777778" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.2166666666667" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.775" style="3" customWidth="1"/>
+    <col min="9" max="9" width="33.1083333333333" style="3" customWidth="1"/>
+    <col min="10" max="10" width="24.1083333333333" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.775" style="3" customWidth="1"/>
     <col min="12" max="12" width="9" style="3" customWidth="1"/>
-    <col min="13" max="13" width="23.212962962963" style="3" customWidth="1"/>
+    <col min="13" max="13" width="23.2166666666667" style="3" customWidth="1"/>
     <col min="14" max="14" width="26.3333333333333" style="3" customWidth="1"/>
-    <col min="15" max="15" width="22.7777777777778" style="3" customWidth="1"/>
-    <col min="16" max="16" width="0.87962962962963" style="3" customWidth="1"/>
+    <col min="15" max="15" width="22.775" style="3" customWidth="1"/>
+    <col min="16" max="16" width="0.883333333333333" style="3" customWidth="1"/>
     <col min="17" max="16383" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:17">
+    <row r="1" ht="26.25" spans="1:17">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -11756,7 +11790,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" ht="24" spans="1:15">
+    <row r="5" ht="33" spans="1:15">
       <c r="A5" s="7" t="s">
         <v>224</v>
       </c>
@@ -11789,7 +11823,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" ht="24" spans="1:15">
+    <row r="6" spans="1:15">
       <c r="A6" s="7" t="s">
         <v>231</v>
       </c>
@@ -11828,7 +11862,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" ht="24" spans="1:15">
+    <row r="7" spans="1:15">
       <c r="A7" s="7" t="s">
         <v>238</v>
       </c>
@@ -11871,7 +11905,7 @@
       </c>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" ht="36" spans="1:15">
+    <row r="8" ht="33" spans="1:15">
       <c r="A8" s="7" t="s">
         <v>247</v>
       </c>
@@ -11914,7 +11948,7 @@
       </c>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" ht="24" spans="1:15">
+    <row r="9" spans="1:15">
       <c r="A9" s="7" t="s">
         <v>255</v>
       </c>
@@ -12074,7 +12108,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" ht="24" spans="1:15">
+    <row r="13" spans="1:15">
       <c r="A13" s="30" t="s">
         <v>279</v>
       </c>
@@ -12111,7 +12145,7 @@
       <c r="N13" s="9"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" ht="36" spans="1:15">
+    <row r="14" ht="49.5" spans="1:15">
       <c r="A14" s="30" t="s">
         <v>285</v>
       </c>
@@ -12150,7 +12184,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" ht="24" spans="1:15">
+    <row r="15" spans="1:15">
       <c r="A15" s="30" t="s">
         <v>291</v>
       </c>
@@ -12193,7 +12227,7 @@
       </c>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" ht="24" spans="1:15">
+    <row r="16" spans="1:15">
       <c r="A16" s="30" t="s">
         <v>299</v>
       </c>
@@ -12357,7 +12391,7 @@
       </c>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" ht="24" spans="1:15">
+    <row r="20" spans="1:15">
       <c r="A20" s="7" t="s">
         <v>325</v>
       </c>
@@ -12394,7 +12428,7 @@
       <c r="N20" s="9"/>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" ht="24" spans="1:15">
+    <row r="21" ht="33" spans="1:15">
       <c r="A21" s="7" t="s">
         <v>331</v>
       </c>
@@ -12437,7 +12471,7 @@
       </c>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" ht="24" spans="1:15">
+    <row r="22" ht="33" spans="1:15">
       <c r="A22" s="7" t="s">
         <v>337</v>
       </c>
@@ -12480,7 +12514,7 @@
       </c>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" ht="24" spans="1:15">
+    <row r="23" ht="33" spans="1:15">
       <c r="A23" s="7" t="s">
         <v>343</v>
       </c>
@@ -12517,7 +12551,7 @@
       <c r="N23" s="9"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" ht="24" spans="1:15">
+    <row r="24" ht="33" spans="1:15">
       <c r="A24" s="7" t="s">
         <v>349</v>
       </c>
@@ -12554,7 +12588,7 @@
       <c r="N24" s="9"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" ht="24" spans="1:15">
+    <row r="25" spans="1:15">
       <c r="A25" s="7" t="s">
         <v>355</v>
       </c>
@@ -12591,7 +12625,7 @@
       <c r="N25" s="9"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" ht="24" spans="1:15">
+    <row r="26" spans="1:15">
       <c r="A26" s="7" t="s">
         <v>361</v>
       </c>
@@ -12628,7 +12662,7 @@
       <c r="N26" s="9"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" ht="24" spans="1:15">
+    <row r="27" spans="1:15">
       <c r="A27" s="7" t="s">
         <v>367</v>
       </c>
@@ -12665,7 +12699,7 @@
       <c r="N27" s="9"/>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" ht="24" spans="1:15">
+    <row r="28" spans="1:15">
       <c r="A28" s="7" t="s">
         <v>373</v>
       </c>
@@ -12702,7 +12736,7 @@
       <c r="N28" s="9"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" ht="24" spans="1:15">
+    <row r="29" spans="1:15">
       <c r="A29" s="7" t="s">
         <v>379</v>
       </c>
@@ -12739,7 +12773,7 @@
       <c r="N29" s="9"/>
       <c r="O29" s="7"/>
     </row>
-    <row r="30" ht="24" spans="1:15">
+    <row r="30" spans="1:15">
       <c r="A30" s="7" t="s">
         <v>385</v>
       </c>
@@ -12776,7 +12810,7 @@
       <c r="N30" s="9"/>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" ht="24" spans="1:15">
+    <row r="31" spans="1:15">
       <c r="A31" s="7" t="s">
         <v>391</v>
       </c>
@@ -12813,7 +12847,7 @@
       <c r="N31" s="9"/>
       <c r="O31" s="7"/>
     </row>
-    <row r="32" ht="24" spans="1:15">
+    <row r="32" spans="1:15">
       <c r="A32" s="7" t="s">
         <v>397</v>
       </c>
@@ -12971,7 +13005,7 @@
       </c>
       <c r="O35" s="7"/>
     </row>
-    <row r="36" ht="24" spans="1:15">
+    <row r="36" ht="33" spans="1:15">
       <c r="A36" s="7" t="s">
         <v>421</v>
       </c>
@@ -13207,7 +13241,7 @@
       <c r="N41" s="9"/>
       <c r="O41" s="7"/>
     </row>
-    <row r="42" ht="48" spans="1:15">
+    <row r="42" ht="66" spans="1:15">
       <c r="A42" s="7" t="s">
         <v>455</v>
       </c>
@@ -13246,7 +13280,7 @@
       <c r="N42" s="9"/>
       <c r="O42" s="7"/>
     </row>
-    <row r="43" ht="24" spans="1:15">
+    <row r="43" ht="33" spans="1:15">
       <c r="A43" s="7" t="s">
         <v>461</v>
       </c>
@@ -13285,7 +13319,7 @@
       <c r="N43" s="9"/>
       <c r="O43" s="7"/>
     </row>
-    <row r="44" ht="24" spans="1:15">
+    <row r="44" ht="33" spans="1:15">
       <c r="A44" s="7" t="s">
         <v>467</v>
       </c>
@@ -13441,7 +13475,7 @@
       </c>
       <c r="O47" s="7"/>
     </row>
-    <row r="48" ht="24" spans="1:15">
+    <row r="48" ht="33" spans="1:15">
       <c r="A48" s="7" t="s">
         <v>492</v>
       </c>
@@ -13484,7 +13518,7 @@
       </c>
       <c r="O48" s="7"/>
     </row>
-    <row r="49" ht="36" spans="1:15">
+    <row r="49" ht="49.5" spans="1:15">
       <c r="A49" s="7" t="s">
         <v>498</v>
       </c>
@@ -13566,7 +13600,7 @@
       <c r="N50" s="9"/>
       <c r="O50" s="7"/>
     </row>
-    <row r="51" ht="24" spans="1:15">
+    <row r="51" ht="33" spans="1:15">
       <c r="A51" s="7" t="s">
         <v>509</v>
       </c>
@@ -13605,7 +13639,7 @@
       <c r="N51" s="9"/>
       <c r="O51" s="7"/>
     </row>
-    <row r="52" ht="24" spans="1:15">
+    <row r="52" spans="1:15">
       <c r="A52" s="30" t="s">
         <v>514</v>
       </c>
@@ -13642,7 +13676,7 @@
       <c r="N52" s="9"/>
       <c r="O52" s="7"/>
     </row>
-    <row r="53" ht="24" spans="1:15">
+    <row r="53" ht="33" spans="1:15">
       <c r="A53" s="30" t="s">
         <v>520</v>
       </c>
@@ -13685,7 +13719,7 @@
       </c>
       <c r="O53" s="7"/>
     </row>
-    <row r="54" ht="24" spans="1:15">
+    <row r="54" ht="33" spans="1:15">
       <c r="A54" s="30" t="s">
         <v>526</v>
       </c>
@@ -13728,7 +13762,7 @@
       </c>
       <c r="O54" s="7"/>
     </row>
-    <row r="55" ht="24" spans="1:15">
+    <row r="55" ht="33" spans="1:15">
       <c r="A55" s="30" t="s">
         <v>532</v>
       </c>
@@ -13771,7 +13805,7 @@
       </c>
       <c r="O55" s="7"/>
     </row>
-    <row r="56" ht="24" spans="1:15">
+    <row r="56" ht="33" spans="1:15">
       <c r="A56" s="30" t="s">
         <v>538</v>
       </c>
@@ -13814,7 +13848,7 @@
       </c>
       <c r="O56" s="7"/>
     </row>
-    <row r="57" ht="24" spans="1:15">
+    <row r="57" ht="33" spans="1:15">
       <c r="A57" s="30" t="s">
         <v>546</v>
       </c>
@@ -13853,7 +13887,7 @@
       <c r="N57" s="9"/>
       <c r="O57" s="7"/>
     </row>
-    <row r="58" ht="24" spans="1:15">
+    <row r="58" ht="33" spans="1:15">
       <c r="A58" s="30" t="s">
         <v>552</v>
       </c>
@@ -13892,7 +13926,7 @@
       <c r="N58" s="9"/>
       <c r="O58" s="7"/>
     </row>
-    <row r="59" ht="48" spans="1:15">
+    <row r="59" ht="66" spans="1:15">
       <c r="A59" s="30" t="s">
         <v>558</v>
       </c>
@@ -13933,7 +13967,7 @@
       <c r="N59" s="9"/>
       <c r="O59" s="7"/>
     </row>
-    <row r="60" ht="24" spans="1:15">
+    <row r="60" ht="33" spans="1:15">
       <c r="A60" s="30" t="s">
         <v>564</v>
       </c>
@@ -14052,7 +14086,7 @@
       <c r="N62" s="9"/>
       <c r="O62" s="7"/>
     </row>
-    <row r="63" ht="36" spans="1:15">
+    <row r="63" ht="49.5" spans="1:15">
       <c r="A63" s="30" t="s">
         <v>582</v>
       </c>
@@ -14091,7 +14125,7 @@
       <c r="N63" s="9"/>
       <c r="O63" s="7"/>
     </row>
-    <row r="64" ht="24" spans="1:15">
+    <row r="64" ht="33" spans="1:15">
       <c r="A64" s="30" t="s">
         <v>588</v>
       </c>
@@ -14333,7 +14367,7 @@
       <c r="N69" s="9"/>
       <c r="O69" s="7"/>
     </row>
-    <row r="70" ht="24" spans="1:15">
+    <row r="70" spans="1:15">
       <c r="A70" s="7" t="s">
         <v>627</v>
       </c>
@@ -14846,7 +14880,7 @@
       <c r="N82" s="9"/>
       <c r="O82" s="7"/>
     </row>
-    <row r="83" ht="24" spans="1:15">
+    <row r="83" ht="33" spans="1:15">
       <c r="A83" s="31" t="s">
         <v>700</v>
       </c>
@@ -15371,7 +15405,7 @@
       </c>
       <c r="O95" s="7"/>
     </row>
-    <row r="96" ht="24" spans="1:15">
+    <row r="96" spans="1:15">
       <c r="A96" s="31" t="s">
         <v>770</v>
       </c>
@@ -15410,7 +15444,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="97" ht="24" spans="1:15">
+    <row r="97" spans="1:15">
       <c r="A97" s="31" t="s">
         <v>775</v>
       </c>
@@ -15840,24 +15874,24 @@
       <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="30.212962962963" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7777777777778" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.2166666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.775" style="2" customWidth="1"/>
     <col min="3" max="3" width="38.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.775" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.775" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.6666666666667" style="33" customWidth="1"/>
     <col min="7" max="7" width="16.3333333333333" style="33" customWidth="1"/>
     <col min="8" max="8" width="24.3333333333333" style="33" customWidth="1"/>
-    <col min="9" max="9" width="32.7777777777778" style="33" customWidth="1"/>
-    <col min="10" max="10" width="36.4074074074074" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.775" style="33" customWidth="1"/>
+    <col min="10" max="10" width="36.4083333333333" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.3333333333333" style="33" customWidth="1"/>
-    <col min="12" max="12" width="0.87962962962963" style="33" customWidth="1"/>
+    <col min="12" max="12" width="0.883333333333333" style="33" customWidth="1"/>
     <col min="13" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:13">
+    <row r="1" ht="26.25" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -16009,7 +16043,7 @@
       <c r="J5" s="35"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" ht="24" spans="1:11">
+    <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
         <v>312</v>
       </c>
@@ -16042,7 +16076,7 @@
       </c>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" ht="36" spans="1:11">
+    <row r="7" ht="49.5" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>317</v>
       </c>
@@ -16075,7 +16109,7 @@
       </c>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" ht="48" spans="1:11">
+    <row r="8" ht="66" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>323</v>
       </c>
@@ -16106,7 +16140,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" ht="24" spans="1:11">
+    <row r="9" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>330</v>
       </c>
@@ -16139,7 +16173,7 @@
       </c>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" ht="36" spans="1:11">
+    <row r="10" ht="49.5" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>335</v>
       </c>
@@ -16172,7 +16206,7 @@
       </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" ht="60" spans="1:11">
+    <row r="11" ht="66" spans="1:11">
       <c r="A11" s="7" t="s">
         <v>341</v>
       </c>
@@ -16203,7 +16237,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" ht="24" spans="1:11">
+    <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
         <v>408</v>
       </c>
@@ -16236,7 +16270,7 @@
       </c>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" ht="36" spans="1:11">
+    <row r="13" ht="49.5" spans="1:11">
       <c r="A13" s="7" t="s">
         <v>413</v>
       </c>
@@ -16269,7 +16303,7 @@
       </c>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" ht="60" spans="1:11">
+    <row r="14" ht="82.5" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>419</v>
       </c>
@@ -16300,7 +16334,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" ht="24" spans="1:11">
+    <row r="15" spans="1:11">
       <c r="A15" s="7" t="s">
         <v>426</v>
       </c>
@@ -16333,7 +16367,7 @@
       </c>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" ht="36" spans="1:11">
+    <row r="16" ht="33" spans="1:11">
       <c r="A16" s="7" t="s">
         <v>431</v>
       </c>
@@ -16366,7 +16400,7 @@
       </c>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" ht="60" spans="1:11">
+    <row r="17" ht="66" spans="1:11">
       <c r="A17" s="7" t="s">
         <v>437</v>
       </c>
@@ -16397,7 +16431,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" ht="24" spans="1:11">
+    <row r="18" spans="1:11">
       <c r="A18" s="7" t="s">
         <v>828</v>
       </c>
@@ -16430,7 +16464,7 @@
       </c>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" ht="36" spans="1:11">
+    <row r="19" ht="49.5" spans="1:11">
       <c r="A19" s="7" t="s">
         <v>832</v>
       </c>
@@ -16463,7 +16497,7 @@
       </c>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" ht="60" spans="1:11">
+    <row r="20" ht="66" spans="1:11">
       <c r="A20" s="7" t="s">
         <v>836</v>
       </c>
@@ -16494,7 +16528,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" ht="24" spans="1:11">
+    <row r="21" spans="1:11">
       <c r="A21" s="7" t="s">
         <v>839</v>
       </c>
@@ -16527,7 +16561,7 @@
       </c>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" ht="36" spans="1:11">
+    <row r="22" ht="49.5" spans="1:11">
       <c r="A22" s="7" t="s">
         <v>843</v>
       </c>
@@ -16560,7 +16594,7 @@
       </c>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" ht="60" spans="1:11">
+    <row r="23" ht="66" spans="1:11">
       <c r="A23" s="7" t="s">
         <v>847</v>
       </c>
@@ -16591,7 +16625,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" ht="24" spans="1:11">
+    <row r="24" spans="1:11">
       <c r="A24" s="7" t="s">
         <v>756</v>
       </c>
@@ -16624,7 +16658,7 @@
       </c>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" ht="36" spans="1:11">
+    <row r="25" ht="49.5" spans="1:11">
       <c r="A25" s="7" t="s">
         <v>762</v>
       </c>
@@ -16657,7 +16691,7 @@
       </c>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" ht="48" spans="1:11">
+    <row r="26" ht="66" spans="1:11">
       <c r="A26" s="7" t="s">
         <v>768</v>
       </c>
@@ -16688,7 +16722,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" ht="24" spans="1:11">
+    <row r="27" spans="1:11">
       <c r="A27" s="7" t="s">
         <v>633</v>
       </c>
@@ -16721,7 +16755,7 @@
       </c>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" ht="36" spans="1:11">
+    <row r="28" ht="49.5" spans="1:11">
       <c r="A28" s="7" t="s">
         <v>638</v>
       </c>
@@ -16754,7 +16788,7 @@
       </c>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" ht="60" spans="1:11">
+    <row r="29" ht="66" spans="1:11">
       <c r="A29" s="7" t="s">
         <v>644</v>
       </c>
@@ -16785,7 +16819,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" ht="36" spans="1:11">
+    <row r="30" ht="49.5" spans="1:11">
       <c r="A30" s="7" t="s">
         <v>290</v>
       </c>
@@ -16820,7 +16854,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="31" ht="60" spans="1:11">
+    <row r="31" ht="66" spans="1:11">
       <c r="A31" s="7" t="s">
         <v>296</v>
       </c>
@@ -16853,7 +16887,7 @@
       </c>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" ht="72" spans="1:11">
+    <row r="32" ht="82.5" spans="1:11">
       <c r="A32" s="7" t="s">
         <v>304</v>
       </c>
@@ -16884,7 +16918,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" ht="24" spans="1:11">
+    <row r="33" ht="33" spans="1:11">
       <c r="A33" s="7" t="s">
         <v>600</v>
       </c>
@@ -16917,7 +16951,7 @@
       </c>
       <c r="K33" s="9"/>
     </row>
-    <row r="34" ht="48" spans="1:11">
+    <row r="34" ht="66" spans="1:11">
       <c r="A34" s="7" t="s">
         <v>606</v>
       </c>
@@ -16950,7 +16984,7 @@
       </c>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" ht="72" spans="1:11">
+    <row r="35" ht="82.5" spans="1:11">
       <c r="A35" s="7" t="s">
         <v>613</v>
       </c>
@@ -16981,7 +17015,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" ht="24" spans="1:11">
+    <row r="36" ht="33" spans="1:11">
       <c r="A36" s="7" t="s">
         <v>563</v>
       </c>
@@ -17014,7 +17048,7 @@
       </c>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" ht="48" spans="1:11">
+    <row r="37" ht="66" spans="1:11">
       <c r="A37" s="7" t="s">
         <v>886</v>
       </c>
@@ -17047,7 +17081,7 @@
       </c>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" ht="72" spans="1:11">
+    <row r="38" ht="82.5" spans="1:11">
       <c r="A38" s="7" t="s">
         <v>890</v>
       </c>
@@ -17078,7 +17112,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" ht="24" spans="1:11">
+    <row r="39" ht="33" spans="1:11">
       <c r="A39" s="7" t="s">
         <v>575</v>
       </c>
@@ -17111,7 +17145,7 @@
       </c>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" ht="48" spans="1:11">
+    <row r="40" ht="66" spans="1:11">
       <c r="A40" s="7" t="s">
         <v>896</v>
       </c>
@@ -17144,7 +17178,7 @@
       </c>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" ht="72" spans="1:11">
+    <row r="41" ht="82.5" spans="1:11">
       <c r="A41" s="7" t="s">
         <v>900</v>
       </c>
@@ -17175,7 +17209,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" ht="24" spans="1:11">
+    <row r="42" spans="1:11">
       <c r="A42" s="7" t="s">
         <v>485</v>
       </c>
@@ -17208,7 +17242,7 @@
       </c>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" ht="36" spans="1:11">
+    <row r="43" ht="49.5" spans="1:11">
       <c r="A43" s="7" t="s">
         <v>490</v>
       </c>
@@ -17241,7 +17275,7 @@
       </c>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" ht="48" spans="1:11">
+    <row r="44" ht="66" spans="1:11">
       <c r="A44" s="7" t="s">
         <v>909</v>
       </c>
@@ -17272,7 +17306,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" ht="24" spans="1:11">
+    <row r="45" spans="1:11">
       <c r="A45" s="7" t="s">
         <v>508</v>
       </c>
@@ -17305,7 +17339,7 @@
       </c>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" ht="36" spans="1:11">
+    <row r="46" ht="49.5" spans="1:11">
       <c r="A46" s="7" t="s">
         <v>915</v>
       </c>
@@ -17338,7 +17372,7 @@
       </c>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" ht="48" spans="1:11">
+    <row r="47" ht="66" spans="1:11">
       <c r="A47" s="7" t="s">
         <v>919</v>
       </c>
@@ -17369,7 +17403,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" ht="24" spans="1:11">
+    <row r="48" ht="33" spans="1:11">
       <c r="A48" s="7" t="s">
         <v>513</v>
       </c>
@@ -17402,7 +17436,7 @@
       </c>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" ht="36" spans="1:11">
+    <row r="49" ht="49.5" spans="1:11">
       <c r="A49" s="7" t="s">
         <v>925</v>
       </c>
@@ -17435,7 +17469,7 @@
       </c>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" ht="60" spans="1:11">
+    <row r="50" ht="82.5" spans="1:11">
       <c r="A50" s="7" t="s">
         <v>929</v>
       </c>
@@ -17466,7 +17500,7 @@
       <c r="J50" s="35"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" ht="24" spans="1:11">
+    <row r="51" ht="33" spans="1:11">
       <c r="A51" s="7" t="s">
         <v>713</v>
       </c>
@@ -17499,7 +17533,7 @@
       </c>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" ht="36" spans="1:11">
+    <row r="52" ht="49.5" spans="1:11">
       <c r="A52" s="7" t="s">
         <v>718</v>
       </c>
@@ -17532,7 +17566,7 @@
       </c>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" ht="60" spans="1:11">
+    <row r="53" ht="66" spans="1:11">
       <c r="A53" s="7" t="s">
         <v>724</v>
       </c>
@@ -17563,7 +17597,7 @@
       <c r="J53" s="35"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" ht="36" spans="1:11">
+    <row r="54" ht="49.5" spans="1:11">
       <c r="A54" s="7" t="s">
         <v>236</v>
       </c>
@@ -17596,7 +17630,7 @@
       </c>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" ht="48" spans="1:11">
+    <row r="55" ht="66" spans="1:11">
       <c r="A55" s="7" t="s">
         <v>243</v>
       </c>
@@ -17629,7 +17663,7 @@
       </c>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" ht="72" spans="1:11">
+    <row r="56" ht="82.5" spans="1:11">
       <c r="A56" s="7" t="s">
         <v>944</v>
       </c>
@@ -17660,7 +17694,7 @@
       <c r="J56" s="35"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" ht="36" spans="1:11">
+    <row r="57" ht="49.5" spans="1:11">
       <c r="A57" s="7" t="s">
         <v>230</v>
       </c>
@@ -17693,7 +17727,7 @@
       </c>
       <c r="K57" s="9"/>
     </row>
-    <row r="58" ht="60" spans="1:11">
+    <row r="58" ht="82.5" spans="1:11">
       <c r="A58" s="7" t="s">
         <v>950</v>
       </c>
@@ -17726,7 +17760,7 @@
       </c>
       <c r="K58" s="9"/>
     </row>
-    <row r="59" ht="84" spans="1:11">
+    <row r="59" ht="99" spans="1:11">
       <c r="A59" s="7" t="s">
         <v>260</v>
       </c>
@@ -17757,7 +17791,7 @@
       <c r="J59" s="35"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" ht="24" spans="1:11">
+    <row r="60" ht="33" spans="1:11">
       <c r="A60" s="7" t="s">
         <v>956</v>
       </c>
@@ -24667,27 +24701,27 @@
   <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O73" sqref="O73"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="24.212962962963" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.11111111111111" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7777777777778" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.2166666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.10833333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.775" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.8796296296296" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.212962962963" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.8833333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.2166666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7777777777778" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.1111111111111" style="3" customWidth="1"/>
-    <col min="10" max="10" width="0.87962962962963" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.775" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.1083333333333" style="3" customWidth="1"/>
+    <col min="10" max="10" width="0.883333333333333" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:11">
+    <row r="1" ht="26.25" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -24865,7 +24899,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" ht="24" spans="1:9">
+    <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>1679</v>
       </c>
@@ -24892,7 +24926,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" ht="24" spans="1:9">
+    <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
         <v>1683</v>
       </c>
@@ -24919,7 +24953,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" ht="24" spans="1:9">
+    <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
         <v>1686</v>
       </c>
@@ -24946,7 +24980,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" ht="24" spans="1:9">
+    <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
         <v>1689</v>
       </c>
@@ -24973,7 +25007,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" ht="24" spans="1:9">
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
         <v>378</v>
       </c>
@@ -25000,7 +25034,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" ht="24" spans="1:9">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>396</v>
       </c>
@@ -25027,7 +25061,7 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" ht="24" spans="1:9">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>366</v>
       </c>
@@ -25054,7 +25088,7 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" ht="24" spans="1:9">
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>372</v>
       </c>
@@ -25081,7 +25115,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" ht="24" spans="1:9">
+    <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
         <v>1700</v>
       </c>
@@ -25108,7 +25142,7 @@
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" ht="24" spans="1:9">
+    <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
         <v>1703</v>
       </c>
@@ -25135,7 +25169,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" ht="24" spans="1:9">
+    <row r="18" spans="1:9">
       <c r="A18" s="7" t="s">
         <v>360</v>
       </c>
@@ -25162,7 +25196,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" ht="24" spans="1:9">
+    <row r="19" spans="1:9">
       <c r="A19" s="7" t="s">
         <v>1708</v>
       </c>
@@ -25189,7 +25223,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" ht="24" spans="1:9">
+    <row r="20" spans="1:9">
       <c r="A20" s="7" t="s">
         <v>384</v>
       </c>
@@ -25216,7 +25250,7 @@
       </c>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" ht="24" spans="1:9">
+    <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
         <v>390</v>
       </c>
@@ -25243,7 +25277,7 @@
       </c>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" ht="24" spans="1:9">
+    <row r="22" spans="1:9">
       <c r="A22" s="7" t="s">
         <v>402</v>
       </c>
@@ -25270,7 +25304,7 @@
       </c>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" ht="24" spans="1:9">
+    <row r="23" spans="1:9">
       <c r="A23" s="30" t="s">
         <v>1717</v>
       </c>
@@ -25297,7 +25331,7 @@
       </c>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" ht="24" spans="1:9">
+    <row r="24" spans="1:9">
       <c r="A24" s="30" t="s">
         <v>1720</v>
       </c>
@@ -25864,7 +25898,7 @@
       </c>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" ht="24" spans="1:9">
+    <row r="45" spans="1:9">
       <c r="A45" s="7" t="s">
         <v>1789</v>
       </c>
@@ -26026,7 +26060,7 @@
       </c>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" ht="24" spans="1:9">
+    <row r="51" ht="33" spans="1:9">
       <c r="A51" s="7" t="s">
         <v>755</v>
       </c>
@@ -26184,7 +26218,7 @@
       </c>
       <c r="I56" s="7"/>
     </row>
-    <row r="57" ht="24" spans="1:9">
+    <row r="57" spans="1:9">
       <c r="A57" s="7" t="s">
         <v>650</v>
       </c>
@@ -26211,7 +26245,7 @@
       </c>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" ht="24" spans="1:9">
+    <row r="58" spans="1:9">
       <c r="A58" s="7" t="s">
         <v>677</v>
       </c>
@@ -26238,7 +26272,7 @@
       </c>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" ht="24" spans="1:9">
+    <row r="59" spans="1:9">
       <c r="A59" s="7" t="s">
         <v>655</v>
       </c>
@@ -26265,7 +26299,7 @@
       </c>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" ht="24" spans="1:9">
+    <row r="60" spans="1:9">
       <c r="A60" s="7" t="s">
         <v>682</v>
       </c>
@@ -26292,7 +26326,7 @@
       </c>
       <c r="I60" s="7"/>
     </row>
-    <row r="61" ht="24" spans="1:9">
+    <row r="61" spans="1:9">
       <c r="A61" s="7" t="s">
         <v>660</v>
       </c>
@@ -26319,7 +26353,7 @@
       </c>
       <c r="I61" s="7"/>
     </row>
-    <row r="62" ht="24" spans="1:9">
+    <row r="62" spans="1:9">
       <c r="A62" s="7" t="s">
         <v>687</v>
       </c>
@@ -26346,7 +26380,7 @@
       </c>
       <c r="I62" s="7"/>
     </row>
-    <row r="63" ht="24" spans="1:9">
+    <row r="63" spans="1:9">
       <c r="A63" s="7" t="s">
         <v>666</v>
       </c>
@@ -26373,7 +26407,7 @@
       </c>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" ht="24" spans="1:9">
+    <row r="64" spans="1:9">
       <c r="A64" s="7" t="s">
         <v>693</v>
       </c>
@@ -26400,7 +26434,7 @@
       </c>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" ht="24" spans="1:9">
+    <row r="65" spans="1:9">
       <c r="A65" s="7" t="s">
         <v>672</v>
       </c>
@@ -26427,7 +26461,7 @@
       </c>
       <c r="I65" s="7"/>
     </row>
-    <row r="66" ht="24" spans="1:9">
+    <row r="66" spans="1:9">
       <c r="A66" s="7" t="s">
         <v>699</v>
       </c>
@@ -26778,7 +26812,7 @@
       </c>
       <c r="I78" s="7"/>
     </row>
-    <row r="79" ht="24" spans="1:9">
+    <row r="79" spans="1:9">
       <c r="A79" s="32" t="s">
         <v>599</v>
       </c>
@@ -26865,7 +26899,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="82" ht="24" spans="1:9">
+    <row r="82" spans="1:9">
       <c r="A82" s="7" t="s">
         <v>574</v>
       </c>
@@ -26892,7 +26926,7 @@
       </c>
       <c r="I82" s="7"/>
     </row>
-    <row r="83" ht="24" spans="1:9">
+    <row r="83" spans="1:9">
       <c r="A83" s="7" t="s">
         <v>1916</v>
       </c>
@@ -26919,7 +26953,7 @@
       </c>
       <c r="I83" s="7"/>
     </row>
-    <row r="84" ht="24" spans="1:9">
+    <row r="84" spans="1:9">
       <c r="A84" s="7" t="s">
         <v>1920</v>
       </c>
@@ -26946,7 +26980,7 @@
       </c>
       <c r="I84" s="7"/>
     </row>
-    <row r="85" ht="24" spans="1:9">
+    <row r="85" spans="1:9">
       <c r="A85" s="7" t="s">
         <v>1924</v>
       </c>
@@ -26973,7 +27007,7 @@
       </c>
       <c r="I85" s="7"/>
     </row>
-    <row r="86" ht="24" spans="1:9">
+    <row r="86" spans="1:9">
       <c r="A86" s="7" t="s">
         <v>1928</v>
       </c>
@@ -27000,7 +27034,7 @@
       </c>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" ht="24" spans="1:9">
+    <row r="87" spans="1:9">
       <c r="A87" s="7" t="s">
         <v>1932</v>
       </c>
@@ -27027,7 +27061,7 @@
       </c>
       <c r="I87" s="7"/>
     </row>
-    <row r="88" ht="24" spans="1:9">
+    <row r="88" spans="1:9">
       <c r="A88" s="7" t="s">
         <v>1936</v>
       </c>
@@ -27054,7 +27088,7 @@
       </c>
       <c r="I88" s="7"/>
     </row>
-    <row r="89" ht="36" spans="1:9">
+    <row r="89" ht="49.5" spans="1:9">
       <c r="A89" s="7" t="s">
         <v>1940</v>
       </c>
@@ -27081,7 +27115,7 @@
       </c>
       <c r="I89" s="7"/>
     </row>
-    <row r="90" ht="24" spans="1:9">
+    <row r="90" ht="33" spans="1:9">
       <c r="A90" s="7" t="s">
         <v>1944</v>
       </c>
@@ -27108,7 +27142,7 @@
       </c>
       <c r="I90" s="7"/>
     </row>
-    <row r="91" ht="24" spans="1:9">
+    <row r="91" spans="1:9">
       <c r="A91" s="7" t="s">
         <v>1948</v>
       </c>
@@ -27216,7 +27250,7 @@
       </c>
       <c r="I94" s="7"/>
     </row>
-    <row r="95" ht="24" spans="1:9">
+    <row r="95" ht="33" spans="1:9">
       <c r="A95" s="7" t="s">
         <v>1962</v>
       </c>
@@ -27243,7 +27277,7 @@
       </c>
       <c r="I95" s="7"/>
     </row>
-    <row r="96" ht="24" spans="1:9">
+    <row r="96" spans="1:9">
       <c r="A96" s="7" t="s">
         <v>1966</v>
       </c>
@@ -27297,7 +27331,7 @@
       </c>
       <c r="I97" s="7"/>
     </row>
-    <row r="98" ht="24" spans="1:9">
+    <row r="98" spans="1:9">
       <c r="A98" s="7" t="s">
         <v>1974</v>
       </c>
@@ -27324,7 +27358,7 @@
       </c>
       <c r="I98" s="7"/>
     </row>
-    <row r="99" ht="24" spans="1:9">
+    <row r="99" spans="1:9">
       <c r="A99" s="7" t="s">
         <v>1978</v>
       </c>
@@ -27351,7 +27385,7 @@
       </c>
       <c r="I99" s="7"/>
     </row>
-    <row r="100" ht="24" spans="1:9">
+    <row r="100" spans="1:9">
       <c r="A100" s="7" t="s">
         <v>1982</v>
       </c>
@@ -27618,21 +27652,21 @@
       <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23.3333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.212962962963" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.2166666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.3333333333333" style="21" customWidth="1"/>
     <col min="8" max="8" width="25.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.8796296296296" style="22" customWidth="1"/>
-    <col min="10" max="10" width="0.87962962962963" style="22" customWidth="1"/>
-    <col min="11" max="11" width="8.87962962962963" style="22"/>
+    <col min="9" max="9" width="21.8833333333333" style="22" customWidth="1"/>
+    <col min="10" max="10" width="0.883333333333333" style="22" customWidth="1"/>
+    <col min="11" max="11" width="8.88333333333333" style="22"/>
     <col min="12" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:11">
+    <row r="1" ht="26.25" spans="1:11">
       <c r="A1" s="23" t="s">
         <v>15</v>
       </c>
@@ -27735,7 +27769,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" ht="24" spans="1:10">
+    <row r="5" spans="1:10">
       <c r="A5" s="7" t="s">
         <v>1991</v>
       </c>
@@ -27763,7 +27797,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" ht="24" spans="1:10">
+    <row r="6" ht="33" spans="1:10">
       <c r="A6" s="7" t="s">
         <v>1997</v>
       </c>
@@ -27791,7 +27825,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" ht="24" spans="1:10">
+    <row r="7" ht="33" spans="1:10">
       <c r="A7" s="7" t="s">
         <v>2000</v>
       </c>
@@ -27819,7 +27853,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" ht="24" spans="1:10">
+    <row r="8" ht="33" spans="1:10">
       <c r="A8" s="7" t="s">
         <v>2003</v>
       </c>
@@ -27847,7 +27881,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" ht="24" spans="1:10">
+    <row r="9" ht="33" spans="1:10">
       <c r="A9" s="7" t="s">
         <v>2005</v>
       </c>
@@ -27875,7 +27909,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" ht="24" spans="1:10">
+    <row r="10" ht="33" spans="1:10">
       <c r="A10" s="7" t="s">
         <v>2007</v>
       </c>
@@ -27903,7 +27937,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" ht="24" spans="1:10">
+    <row r="11" ht="33" spans="1:10">
       <c r="A11" s="7" t="s">
         <v>2009</v>
       </c>
@@ -27931,7 +27965,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" ht="24" spans="1:10">
+    <row r="12" ht="33" spans="1:10">
       <c r="A12" s="7" t="s">
         <v>2012</v>
       </c>
@@ -28155,7 +28189,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" ht="24" spans="1:10">
+    <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
         <v>2038</v>
       </c>
@@ -28183,7 +28217,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" ht="24" spans="1:10">
+    <row r="21" spans="1:10">
       <c r="A21" s="7" t="s">
         <v>2042</v>
       </c>
@@ -28211,7 +28245,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" ht="24" spans="1:10">
+    <row r="22" spans="1:10">
       <c r="A22" s="7" t="s">
         <v>2045</v>
       </c>
@@ -28239,7 +28273,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" ht="24" spans="1:10">
+    <row r="23" spans="1:10">
       <c r="A23" s="7" t="s">
         <v>2048</v>
       </c>
@@ -28267,7 +28301,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" ht="24" spans="1:10">
+    <row r="24" ht="33" spans="1:10">
       <c r="A24" s="7" t="s">
         <v>2051</v>
       </c>
@@ -28295,7 +28329,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" ht="24" spans="1:10">
+    <row r="25" ht="33" spans="1:10">
       <c r="A25" s="7" t="s">
         <v>2055</v>
       </c>
@@ -28351,7 +28385,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" ht="24" spans="1:10">
+    <row r="27" spans="1:10">
       <c r="A27" s="7" t="s">
         <v>2061</v>
       </c>
@@ -28379,7 +28413,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" ht="24" spans="1:10">
+    <row r="28" spans="1:10">
       <c r="A28" s="7" t="s">
         <v>2063</v>
       </c>
@@ -28407,7 +28441,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" ht="24" spans="1:10">
+    <row r="29" spans="1:10">
       <c r="A29" s="7" t="s">
         <v>2065</v>
       </c>
@@ -28435,7 +28469,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" ht="24" spans="1:10">
+    <row r="30" ht="33" spans="1:10">
       <c r="A30" s="7" t="s">
         <v>2067</v>
       </c>
@@ -28463,7 +28497,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" ht="24" spans="1:10">
+    <row r="31" ht="33" spans="1:10">
       <c r="A31" s="7" t="s">
         <v>2069</v>
       </c>
@@ -28715,7 +28749,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" ht="24" spans="1:10">
+    <row r="40" ht="33" spans="1:10">
       <c r="A40" s="7" t="s">
         <v>2092</v>
       </c>
@@ -28743,7 +28777,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" ht="24" spans="1:10">
+    <row r="41" spans="1:10">
       <c r="A41" s="7" t="s">
         <v>2095</v>
       </c>
@@ -28771,7 +28805,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" ht="24" spans="1:10">
+    <row r="42" spans="1:10">
       <c r="A42" s="7" t="s">
         <v>2097</v>
       </c>
@@ -28799,7 +28833,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" ht="24" spans="1:10">
+    <row r="43" spans="1:10">
       <c r="A43" s="7" t="s">
         <v>2099</v>
       </c>
@@ -28827,7 +28861,7 @@
       <c r="I43" s="7"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" ht="24" spans="1:10">
+    <row r="44" spans="1:10">
       <c r="A44" s="7" t="s">
         <v>2101</v>
       </c>
@@ -28855,7 +28889,7 @@
       <c r="I44" s="7"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" ht="24" spans="1:10">
+    <row r="45" spans="1:10">
       <c r="A45" s="7" t="s">
         <v>2103</v>
       </c>
@@ -28883,7 +28917,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" ht="24" spans="1:10">
+    <row r="46" spans="1:10">
       <c r="A46" s="7" t="s">
         <v>2106</v>
       </c>
@@ -28911,7 +28945,7 @@
       <c r="I46" s="7"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" ht="24" spans="1:10">
+    <row r="47" spans="1:10">
       <c r="A47" s="7" t="s">
         <v>2108</v>
       </c>
@@ -29023,7 +29057,7 @@
       <c r="I50" s="7"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" ht="24" spans="1:10">
+    <row r="51" spans="1:10">
       <c r="A51" s="7" t="s">
         <v>2117</v>
       </c>
@@ -29051,7 +29085,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" ht="24" spans="1:10">
+    <row r="52" spans="1:10">
       <c r="A52" s="7" t="s">
         <v>2120</v>
       </c>
@@ -29079,7 +29113,7 @@
       <c r="I52" s="7"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" ht="24" spans="1:10">
+    <row r="53" spans="1:10">
       <c r="A53" s="7" t="s">
         <v>2122</v>
       </c>
@@ -29107,7 +29141,7 @@
       <c r="I53" s="7"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" ht="24" spans="1:10">
+    <row r="54" spans="1:10">
       <c r="A54" s="7" t="s">
         <v>2126</v>
       </c>
@@ -29583,7 +29617,7 @@
       <c r="I70" s="7"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" ht="24" spans="1:10">
+    <row r="71" spans="1:10">
       <c r="A71" s="7" t="s">
         <v>2169</v>
       </c>
@@ -29695,7 +29729,7 @@
       <c r="I74" s="7"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" ht="24" spans="1:10">
+    <row r="75" spans="1:10">
       <c r="A75" s="7" t="s">
         <v>2180</v>
       </c>
@@ -29751,7 +29785,7 @@
       <c r="I76" s="7"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" ht="24" spans="1:10">
+    <row r="77" spans="1:10">
       <c r="A77" s="7" t="s">
         <v>2186</v>
       </c>
@@ -29779,7 +29813,7 @@
       <c r="I77" s="7"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" ht="24" spans="1:10">
+    <row r="78" spans="1:10">
       <c r="A78" s="7" t="s">
         <v>2189</v>
       </c>
@@ -29807,7 +29841,7 @@
       <c r="I78" s="7"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" ht="36" spans="1:10">
+    <row r="79" ht="49.5" spans="1:10">
       <c r="A79" s="7" t="s">
         <v>2192</v>
       </c>
@@ -29863,7 +29897,7 @@
       <c r="I80" s="7"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" ht="24" spans="1:10">
+    <row r="81" spans="1:10">
       <c r="A81" s="7" t="s">
         <v>2197</v>
       </c>
@@ -29891,7 +29925,7 @@
       <c r="I81" s="7"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" ht="24" spans="1:10">
+    <row r="82" spans="1:10">
       <c r="A82" s="7" t="s">
         <v>2201</v>
       </c>
@@ -29919,7 +29953,7 @@
       <c r="I82" s="7"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" ht="24" spans="1:10">
+    <row r="83" spans="1:10">
       <c r="A83" s="7" t="s">
         <v>2204</v>
       </c>
@@ -29947,7 +29981,7 @@
       <c r="I83" s="7"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" ht="36" spans="1:10">
+    <row r="84" ht="33" spans="1:10">
       <c r="A84" s="7" t="s">
         <v>2206</v>
       </c>
@@ -29975,7 +30009,7 @@
       <c r="I84" s="7"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" ht="24" spans="1:10">
+    <row r="85" spans="1:10">
       <c r="A85" s="7" t="s">
         <v>2209</v>
       </c>
@@ -30003,7 +30037,7 @@
       <c r="I85" s="7"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" ht="24" spans="1:10">
+    <row r="86" spans="1:10">
       <c r="A86" s="7" t="s">
         <v>2211</v>
       </c>
@@ -30031,7 +30065,7 @@
       <c r="I86" s="7"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" ht="24" spans="1:10">
+    <row r="87" spans="1:10">
       <c r="A87" s="7" t="s">
         <v>2213</v>
       </c>
@@ -30059,7 +30093,7 @@
       <c r="I87" s="7"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" ht="24" spans="1:10">
+    <row r="88" spans="1:10">
       <c r="A88" s="7" t="s">
         <v>2215</v>
       </c>
@@ -30087,7 +30121,7 @@
       <c r="I88" s="7"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" ht="24" spans="1:10">
+    <row r="89" spans="1:10">
       <c r="A89" s="7" t="s">
         <v>2218</v>
       </c>
@@ -30115,7 +30149,7 @@
       <c r="I89" s="7"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" ht="24" spans="1:10">
+    <row r="90" spans="1:10">
       <c r="A90" s="7" t="s">
         <v>2221</v>
       </c>
@@ -30143,7 +30177,7 @@
       <c r="I90" s="7"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" ht="24" spans="1:10">
+    <row r="91" spans="1:10">
       <c r="A91" s="7" t="s">
         <v>2224</v>
       </c>
@@ -30171,7 +30205,7 @@
       <c r="I91" s="7"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" ht="24" spans="1:10">
+    <row r="92" spans="1:10">
       <c r="A92" s="7" t="s">
         <v>2227</v>
       </c>
@@ -30199,7 +30233,7 @@
       <c r="I92" s="7"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" ht="24" spans="1:10">
+    <row r="93" spans="1:10">
       <c r="A93" s="7" t="s">
         <v>2230</v>
       </c>
@@ -30227,7 +30261,7 @@
       <c r="I93" s="7"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" ht="24" spans="1:10">
+    <row r="94" spans="1:10">
       <c r="A94" s="7" t="s">
         <v>2233</v>
       </c>
@@ -30255,7 +30289,7 @@
       <c r="I94" s="7"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" ht="24" spans="1:10">
+    <row r="95" spans="1:10">
       <c r="A95" s="7" t="s">
         <v>2235</v>
       </c>
@@ -30283,7 +30317,7 @@
       <c r="I95" s="7"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" ht="24" spans="1:10">
+    <row r="96" spans="1:10">
       <c r="A96" s="7" t="s">
         <v>2237</v>
       </c>
@@ -30311,7 +30345,7 @@
       <c r="I96" s="7"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" ht="24" spans="1:10">
+    <row r="97" spans="1:10">
       <c r="A97" s="7" t="s">
         <v>2239</v>
       </c>
@@ -30339,7 +30373,7 @@
       <c r="I97" s="7"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" ht="24" spans="1:10">
+    <row r="98" spans="1:10">
       <c r="A98" s="7" t="s">
         <v>2241</v>
       </c>
@@ -30367,7 +30401,7 @@
       <c r="I98" s="7"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" ht="24" spans="1:10">
+    <row r="99" spans="1:10">
       <c r="A99" s="7" t="s">
         <v>2243</v>
       </c>
@@ -30605,23 +30639,23 @@
       <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.8796296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.4444444444444" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.8833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.775" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.4416666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.3333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.33333333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.66666666666667" style="16" customWidth="1"/>
     <col min="7" max="7" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7777777777778" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1111111111111" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1111111111111" style="16" customWidth="1"/>
-    <col min="11" max="11" width="0.87962962962963" style="16" customWidth="1"/>
+    <col min="8" max="8" width="14.775" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1083333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1083333333333" style="16" customWidth="1"/>
+    <col min="11" max="11" width="0.883333333333333" style="16" customWidth="1"/>
     <col min="12" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:12">
+    <row r="1" ht="26.25" spans="1:12">
       <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
@@ -30812,7 +30846,7 @@
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" ht="24" spans="1:10">
+    <row r="8" spans="1:10">
       <c r="A8" s="9" t="s">
         <v>2263</v>
       </c>
@@ -30866,7 +30900,7 @@
       </c>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" ht="24" spans="1:10">
+    <row r="10" spans="1:10">
       <c r="A10" s="9" t="s">
         <v>2272</v>
       </c>
@@ -30973,20 +31007,20 @@
       <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.4444444444444" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.4416666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1111111111111" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.775" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.1111111111111" style="3" customWidth="1"/>
-    <col min="8" max="8" width="0.87962962962963" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.1083333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="0.883333333333333" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:9">
+    <row r="1" ht="26.25" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>

--- a/ExternProject/_EXE/DataToBinary/DataTable/Config_OC_数据表.xlsx
+++ b/ExternProject/_EXE/DataToBinary/DataTable/Config_OC_数据表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projectoc\ExternProject\_EXE\DataToBinary\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EA7EAE-DA00-47D1-A7CB-6668A985A299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FCDC25-A929-4FD7-9664-0039F4A0D06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="837" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4949" uniqueCount="2539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4949" uniqueCount="2540">
   <si>
     <t>Config目录</t>
   </si>
@@ -7771,7 +7771,11 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>Interact_Bed_1</t>
+    <t>Furniture</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furniture_Bed_1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -7780,7 +7784,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -7999,7 +8003,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -8014,7 +8018,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8023,7 +8027,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -8041,7 +8045,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8080,7 +8084,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8094,6 +8098,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8121,12 +8131,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8456,12 +8460,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="33" t="s">
@@ -8680,18 +8684,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
       <c r="L1" s="4" t="s">
         <v>39</v>
       </c>
@@ -9043,15 +9047,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="I1" s="4" t="s">
         <v>39</v>
       </c>
@@ -9382,16 +9386,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>2506</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="J1" s="4" t="s">
         <v>39</v>
       </c>
@@ -9578,13 +9582,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="G1" s="4" t="s">
         <v>39</v>
       </c>
@@ -9783,18 +9787,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
       <c r="L1" s="4" t="s">
         <v>39</v>
       </c>
@@ -11778,12 +11782,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
       <c r="F1" s="4" t="s">
         <v>39</v>
       </c>
@@ -12365,23 +12369,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
       <c r="Q1" s="4" t="s">
         <v>39</v>
       </c>
@@ -12423,10 +12427,10 @@
       <c r="L2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="N2" s="39"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="5" t="s">
         <v>49</v>
       </c>
@@ -12468,10 +12472,10 @@
       <c r="L3" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="N3" s="39"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="5" t="s">
         <v>59</v>
       </c>
@@ -16602,7 +16606,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
+      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -16623,19 +16627,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
       <c r="M1" s="4" t="s">
         <v>39</v>
       </c>
@@ -18557,14 +18561,14 @@
       <c r="A61" s="6" t="s">
         <v>2533</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="34" t="s">
         <v>2534</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>2536</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>30</v>
+        <v>2538</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>2537</v>
@@ -18575,8 +18579,8 @@
       <c r="G61" s="6">
         <v>1</v>
       </c>
-      <c r="H61" s="44" t="s">
-        <v>2538</v>
+      <c r="H61" s="35" t="s">
+        <v>2539</v>
       </c>
       <c r="I61" s="8" t="s">
         <v>808</v>
@@ -25445,7 +25449,7 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D283" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"ProNode,House,Furniture,Interact"</formula1>
     </dataValidation>
@@ -25482,17 +25486,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="K1" s="4" t="s">
         <v>39</v>
       </c>
@@ -28439,17 +28443,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
       <c r="K1" s="4" t="s">
         <v>39</v>
       </c>
@@ -31782,14 +31786,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
       <c r="H1" s="4" t="s">
         <v>39</v>
       </c>
@@ -31994,13 +31998,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="G1" s="4" t="s">
         <v>39</v>
       </c>

--- a/ExternProject/_EXE/DataToBinary/DataTable/Config_OC_数据表.xlsx
+++ b/ExternProject/_EXE/DataToBinary/DataTable/Config_OC_数据表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projectoc\ExternProject\_EXE\DataToBinary\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17674\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A5119B-A26E-40A1-BA1A-50DCED4F0774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CE336D-DD7D-4B55-A078-6D36140178C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="837" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="837" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalog_目录" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="WorkerEcho_隐兽共鸣" sheetId="35" r:id="rId13"/>
     <sheet name="Creature_养殖生物" sheetId="40" r:id="rId14"/>
     <sheet name="Order_订单管理" sheetId="41" r:id="rId15"/>
+    <sheet name="StoreIcon_仓库标识" sheetId="42" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5593" uniqueCount="2787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5853" uniqueCount="2788">
   <si>
     <t>Config目录</t>
   </si>
@@ -8531,6 +8532,10 @@
     <t>Item_Material_83,1</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>StoreIcon</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -8539,7 +8544,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8619,6 +8624,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -8778,7 +8790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8925,6 +8937,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -9250,15 +9265,15 @@
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="11" customWidth="1"/>
-    <col min="2" max="3" width="20.625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="50.625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="11" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" style="11" customWidth="1"/>
     <col min="5" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25">
+    <row r="1" spans="1:4" ht="20.399999999999999">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -9484,24 +9499,24 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="30" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="11" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" style="11" customWidth="1"/>
     <col min="5" max="5" width="30" style="11" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="11" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="23" customWidth="1"/>
-    <col min="9" max="9" width="21.375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="14.75" style="11" customWidth="1"/>
-    <col min="11" max="11" width="21.125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="23" customWidth="1"/>
-    <col min="13" max="13" width="0.875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" style="23" customWidth="1"/>
+    <col min="13" max="13" width="0.88671875" style="23" customWidth="1"/>
     <col min="14" max="19" width="9" style="23"/>
-    <col min="20" max="20" width="6.375" style="23" customWidth="1"/>
+    <col min="20" max="20" width="6.33203125" style="23" customWidth="1"/>
     <col min="21" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25">
+    <row r="1" spans="1:14" ht="20.399999999999999">
       <c r="A1" s="40" t="s">
         <v>2436</v>
       </c>
@@ -24847,18 +24862,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="39.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="26" style="12" customWidth="1"/>
     <col min="3" max="3" width="29" style="11" customWidth="1"/>
-    <col min="4" max="4" width="21.125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="11" customWidth="1"/>
     <col min="6" max="6" width="19" style="13" customWidth="1"/>
-    <col min="7" max="8" width="19.875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="0.875" style="13" customWidth="1"/>
+    <col min="7" max="8" width="19.88671875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="0.88671875" style="13" customWidth="1"/>
     <col min="10" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25">
+    <row r="1" spans="1:10" ht="20.399999999999999">
       <c r="A1" s="43" t="s">
         <v>21</v>
       </c>
@@ -25401,18 +25416,18 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="6" style="11" customWidth="1"/>
-    <col min="2" max="2" width="4.75" style="12" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="13" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="0.875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="0.88671875" style="13" customWidth="1"/>
     <col min="10" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25">
+    <row r="1" spans="1:10" ht="20.399999999999999">
       <c r="A1" s="43" t="s">
         <v>2690</v>
       </c>
@@ -25598,17 +25613,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="11" customWidth="1"/>
     <col min="2" max="2" width="20" style="12" customWidth="1"/>
-    <col min="3" max="3" width="37.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="0.875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="13"/>
+    <col min="3" max="3" width="37.77734375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="0.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="13"/>
     <col min="8" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25">
+    <row r="1" spans="1:7" ht="20.399999999999999">
       <c r="A1" s="43" t="s">
         <v>27</v>
       </c>
@@ -25796,20 +25811,20 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25">
+    <row r="1" spans="1:9" ht="20.399999999999999">
       <c r="A1" s="46" t="s">
         <v>2301</v>
       </c>
@@ -26228,20 +26243,20 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
     <col min="9" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25">
+    <row r="1" spans="1:16" ht="20.399999999999999">
       <c r="A1" s="46" t="s">
         <v>39</v>
       </c>
@@ -26943,6 +26958,1075 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC71E6C6-0811-4A26-946C-2034BE042B60}">
+  <dimension ref="A1:E87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="0.88671875" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22.2">
+      <c r="A1" s="49" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="E1" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="8" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="8" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="8" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="8" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="8" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="8" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="8" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="8" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="8" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="8" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="8" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="8" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="8" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="8" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="8" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="8" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="8" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="8" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="8" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="8" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="8" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="8" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="8" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="8" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="8" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D61" s="11"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="8" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="8" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="8" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="8" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D65" s="11"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="8" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D66" s="11"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="8" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="8" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D68" s="11"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="8" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D69" s="11"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="8" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="8" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D71" s="11"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="8" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D72" s="11"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="8" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="8" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="8" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="8" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="8" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="8" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="8" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="8" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="8" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D81" s="11"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="8" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="8" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D83" s="11"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="8" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="8" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="8" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D86" s="11"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="8" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D87" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Catalog_目录!A1" display="Back" xr:uid="{6B22B547-9ADB-42AA-8DCF-CCD71956753A}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L98"/>
@@ -26954,21 +28038,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="11" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="11" customWidth="1"/>
     <col min="7" max="7" width="17" style="11" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.75" style="11" customWidth="1"/>
-    <col min="10" max="10" width="19.875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="0.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="0.88671875" style="11" customWidth="1"/>
     <col min="12" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25">
+    <row r="1" spans="1:12" ht="20.399999999999999">
       <c r="A1" s="40" t="s">
         <v>6</v>
       </c>
@@ -28871,15 +29955,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="0.875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="0.88671875" style="11" customWidth="1"/>
     <col min="6" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25">
+    <row r="1" spans="1:6" ht="20.399999999999999">
       <c r="A1" s="40" t="s">
         <v>30</v>
       </c>
@@ -29445,28 +30529,28 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="31.375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="13" customWidth="1"/>
-    <col min="8" max="8" width="33.75" style="13" customWidth="1"/>
-    <col min="9" max="9" width="33.125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="24.125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="18.75" style="13" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="33.77734375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="33.109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" style="13" customWidth="1"/>
     <col min="12" max="12" width="9" style="13" customWidth="1"/>
-    <col min="13" max="13" width="23.25" style="13" customWidth="1"/>
-    <col min="14" max="14" width="26.375" style="13" customWidth="1"/>
-    <col min="15" max="15" width="22.75" style="13" customWidth="1"/>
-    <col min="16" max="16" width="0.875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="23.21875" style="13" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="22.77734375" style="13" customWidth="1"/>
+    <col min="16" max="16" width="0.88671875" style="13" customWidth="1"/>
     <col min="17" max="16383" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.25">
+    <row r="1" spans="1:17" ht="20.399999999999999">
       <c r="A1" s="43" t="s">
         <v>24</v>
       </c>
@@ -29658,7 +30742,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" ht="24">
       <c r="A6" s="8" t="s">
         <v>240</v>
       </c>
@@ -29697,7 +30781,7 @@
       <c r="N6" s="10"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" ht="24">
       <c r="A7" s="8" t="s">
         <v>247</v>
       </c>
@@ -29740,7 +30824,7 @@
       </c>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:17" ht="24">
+    <row r="8" spans="1:17" ht="36">
       <c r="A8" s="8" t="s">
         <v>256</v>
       </c>
@@ -29783,7 +30867,7 @@
       </c>
       <c r="O8" s="8"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" ht="24">
       <c r="A9" s="8" t="s">
         <v>264</v>
       </c>
@@ -29943,7 +31027,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" ht="24">
       <c r="A13" s="24" t="s">
         <v>288</v>
       </c>
@@ -30226,7 +31310,7 @@
       </c>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="24">
       <c r="A20" s="8" t="s">
         <v>333</v>
       </c>
@@ -30423,7 +31507,7 @@
       <c r="N24" s="10"/>
       <c r="O24" s="8"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="24">
       <c r="A25" s="8" t="s">
         <v>363</v>
       </c>
@@ -30460,7 +31544,7 @@
       <c r="N25" s="10"/>
       <c r="O25" s="8"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="24">
       <c r="A26" s="8" t="s">
         <v>369</v>
       </c>
@@ -30497,7 +31581,7 @@
       <c r="N26" s="10"/>
       <c r="O26" s="8"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="24">
       <c r="A27" s="8" t="s">
         <v>375</v>
       </c>
@@ -30534,7 +31618,7 @@
       <c r="N27" s="10"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" ht="24">
       <c r="A28" s="8" t="s">
         <v>381</v>
       </c>
@@ -30571,7 +31655,7 @@
       <c r="N28" s="10"/>
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="24">
       <c r="A29" s="8" t="s">
         <v>387</v>
       </c>
@@ -30608,7 +31692,7 @@
       <c r="N29" s="10"/>
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="24">
       <c r="A30" s="8" t="s">
         <v>393</v>
       </c>
@@ -30645,7 +31729,7 @@
       <c r="N30" s="10"/>
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" ht="24">
       <c r="A31" s="8" t="s">
         <v>399</v>
       </c>
@@ -30682,7 +31766,7 @@
       <c r="N31" s="10"/>
       <c r="O31" s="8"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="24">
       <c r="A32" s="8" t="s">
         <v>405</v>
       </c>
@@ -31474,7 +32558,7 @@
       <c r="N51" s="10"/>
       <c r="O51" s="8"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" ht="24">
       <c r="A52" s="24" t="s">
         <v>522</v>
       </c>
@@ -32202,7 +33286,7 @@
       <c r="N69" s="10"/>
       <c r="O69" s="8"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" ht="24">
       <c r="A70" s="8" t="s">
         <v>635</v>
       </c>
@@ -33240,7 +34324,7 @@
       </c>
       <c r="O95" s="8"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" ht="24">
       <c r="A96" s="29" t="s">
         <v>777</v>
       </c>
@@ -33279,7 +34363,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" ht="24">
       <c r="A97" s="29" t="s">
         <v>782</v>
       </c>
@@ -33709,22 +34793,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="30.25" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="12" customWidth="1"/>
-    <col min="3" max="3" width="38.625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="11" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="35" customWidth="1"/>
-    <col min="8" max="8" width="24.375" style="35" customWidth="1"/>
-    <col min="9" max="9" width="32.75" style="35" customWidth="1"/>
-    <col min="10" max="10" width="36.5" style="11" customWidth="1"/>
-    <col min="11" max="11" width="17.375" style="35" customWidth="1"/>
-    <col min="12" max="12" width="0.875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="32.77734375" style="35" customWidth="1"/>
+    <col min="10" max="10" width="36.44140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="35" customWidth="1"/>
+    <col min="12" max="12" width="0.88671875" style="35" customWidth="1"/>
     <col min="13" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25">
+    <row r="1" spans="1:13" ht="20.399999999999999">
       <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
@@ -34039,7 +35123,7 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="48">
+    <row r="11" spans="1:13" ht="60">
       <c r="A11" s="8" t="s">
         <v>349</v>
       </c>
@@ -34233,7 +35317,7 @@
       </c>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" ht="48">
+    <row r="17" spans="1:11" ht="60">
       <c r="A17" s="8" t="s">
         <v>445</v>
       </c>
@@ -34330,7 +35414,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" ht="48">
+    <row r="20" spans="1:11" ht="60">
       <c r="A20" s="8" t="s">
         <v>832</v>
       </c>
@@ -34427,7 +35511,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" ht="48">
+    <row r="23" spans="1:11" ht="60">
       <c r="A23" s="8" t="s">
         <v>841</v>
       </c>
@@ -34621,7 +35705,7 @@
       </c>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11" ht="48">
+    <row r="29" spans="1:11" ht="60">
       <c r="A29" s="8" t="s">
         <v>652</v>
       </c>
@@ -34687,7 +35771,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="48">
+    <row r="31" spans="1:11" ht="60">
       <c r="A31" s="8" t="s">
         <v>305</v>
       </c>
@@ -34720,7 +35804,7 @@
       </c>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:11" ht="60">
+    <row r="32" spans="1:11" ht="72">
       <c r="A32" s="8" t="s">
         <v>313</v>
       </c>
@@ -34817,7 +35901,7 @@
       </c>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" ht="60">
+    <row r="35" spans="1:11" ht="72">
       <c r="A35" s="8" t="s">
         <v>621</v>
       </c>
@@ -34914,7 +35998,7 @@
       </c>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" ht="60">
+    <row r="38" spans="1:11" ht="72">
       <c r="A38" s="8" t="s">
         <v>874</v>
       </c>
@@ -35011,7 +36095,7 @@
       </c>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:11" ht="60">
+    <row r="41" spans="1:11" ht="72">
       <c r="A41" s="8" t="s">
         <v>882</v>
       </c>
@@ -35399,7 +36483,7 @@
       </c>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" ht="48">
+    <row r="53" spans="1:11" ht="60">
       <c r="A53" s="8" t="s">
         <v>732</v>
       </c>
@@ -35496,7 +36580,7 @@
       </c>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="60">
+    <row r="56" spans="1:11" ht="72">
       <c r="A56" s="8" t="s">
         <v>917</v>
       </c>
@@ -35593,7 +36677,7 @@
       </c>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" ht="72">
+    <row r="59" spans="1:11" ht="84">
       <c r="A59" s="8" t="s">
         <v>269</v>
       </c>
@@ -42559,27 +43643,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="24.25" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="32.875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="20.25" style="11" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="13" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="0.875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="13" customWidth="1"/>
     <col min="11" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
+    <row r="1" spans="1:11" ht="20.399999999999999">
       <c r="A1" s="43" t="s">
         <v>9</v>
       </c>
@@ -42757,7 +43841,7 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="24">
       <c r="A8" s="8" t="s">
         <v>1652</v>
       </c>
@@ -42784,7 +43868,7 @@
       </c>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="24">
       <c r="A9" s="8" t="s">
         <v>1656</v>
       </c>
@@ -42811,7 +43895,7 @@
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="24">
       <c r="A10" s="8" t="s">
         <v>1659</v>
       </c>
@@ -42838,7 +43922,7 @@
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="24">
       <c r="A11" s="8" t="s">
         <v>1662</v>
       </c>
@@ -42865,7 +43949,7 @@
       </c>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="24">
       <c r="A12" s="8" t="s">
         <v>386</v>
       </c>
@@ -42892,7 +43976,7 @@
       </c>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="24">
       <c r="A13" s="8" t="s">
         <v>404</v>
       </c>
@@ -42919,7 +44003,7 @@
       </c>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="24">
       <c r="A14" s="8" t="s">
         <v>374</v>
       </c>
@@ -42946,7 +44030,7 @@
       </c>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="24">
       <c r="A15" s="8" t="s">
         <v>380</v>
       </c>
@@ -42973,7 +44057,7 @@
       </c>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="24">
       <c r="A16" s="8" t="s">
         <v>1673</v>
       </c>
@@ -43000,7 +44084,7 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="24">
       <c r="A17" s="8" t="s">
         <v>1676</v>
       </c>
@@ -43027,7 +44111,7 @@
       </c>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="24">
       <c r="A18" s="8" t="s">
         <v>368</v>
       </c>
@@ -43054,7 +44138,7 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="24">
       <c r="A19" s="8" t="s">
         <v>1681</v>
       </c>
@@ -43081,7 +44165,7 @@
       </c>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="24">
       <c r="A20" s="8" t="s">
         <v>392</v>
       </c>
@@ -43108,7 +44192,7 @@
       </c>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="24">
       <c r="A21" s="8" t="s">
         <v>398</v>
       </c>
@@ -43135,7 +44219,7 @@
       </c>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="24">
       <c r="A22" s="8" t="s">
         <v>410</v>
       </c>
@@ -43162,7 +44246,7 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="24">
       <c r="A23" s="24" t="s">
         <v>1690</v>
       </c>
@@ -43189,7 +44273,7 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="24">
       <c r="A24" s="24" t="s">
         <v>1693</v>
       </c>
@@ -45320,7 +46404,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" ht="24">
       <c r="A103" s="29" t="s">
         <v>1966</v>
       </c>
@@ -45601,19 +46685,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="12" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="32.25" style="11" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="12" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="32.21875" style="11" customWidth="1"/>
     <col min="7" max="7" width="22" style="26" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="11" customWidth="1"/>
-    <col min="9" max="9" width="21.875" style="27" customWidth="1"/>
-    <col min="10" max="10" width="0.875" style="27" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="27"/>
+    <col min="8" max="8" width="27.44140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="27" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="27" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="27"/>
     <col min="12" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
+    <row r="1" spans="1:11" ht="20.399999999999999">
       <c r="A1" s="46" t="s">
         <v>15</v>
       </c>
@@ -45912,7 +46996,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="24">
       <c r="A12" s="8" t="s">
         <v>2000</v>
       </c>
@@ -46696,7 +47780,7 @@
       <c r="I39" s="8"/>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" ht="24">
       <c r="A40" s="8" t="s">
         <v>2080</v>
       </c>
@@ -46836,7 +47920,7 @@
       <c r="I44" s="8"/>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" ht="24">
       <c r="A45" s="8" t="s">
         <v>2091</v>
       </c>
@@ -46864,7 +47948,7 @@
       <c r="I45" s="8"/>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" ht="24">
       <c r="A46" s="8" t="s">
         <v>2094</v>
       </c>
@@ -46892,7 +47976,7 @@
       <c r="I46" s="8"/>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" ht="24">
       <c r="A47" s="8" t="s">
         <v>2096</v>
       </c>
@@ -47004,7 +48088,7 @@
       <c r="I50" s="8"/>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" ht="24">
       <c r="A51" s="8" t="s">
         <v>2105</v>
       </c>
@@ -47032,7 +48116,7 @@
       <c r="I51" s="8"/>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" ht="24">
       <c r="A52" s="8" t="s">
         <v>2108</v>
       </c>
@@ -47060,7 +48144,7 @@
       <c r="I52" s="8"/>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" ht="24">
       <c r="A53" s="8" t="s">
         <v>2110</v>
       </c>
@@ -47088,7 +48172,7 @@
       <c r="I53" s="8"/>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" ht="24">
       <c r="A54" s="8" t="s">
         <v>2114</v>
       </c>
@@ -47564,7 +48648,7 @@
       <c r="I70" s="8"/>
       <c r="J70" s="11"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" ht="24">
       <c r="A71" s="8" t="s">
         <v>2156</v>
       </c>
@@ -47676,7 +48760,7 @@
       <c r="I74" s="8"/>
       <c r="J74" s="11"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" ht="24">
       <c r="A75" s="8" t="s">
         <v>2167</v>
       </c>
@@ -47732,7 +48816,7 @@
       <c r="I76" s="8"/>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" ht="24">
       <c r="A77" s="8" t="s">
         <v>2173</v>
       </c>
@@ -47760,7 +48844,7 @@
       <c r="I77" s="8"/>
       <c r="J77" s="11"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" ht="24">
       <c r="A78" s="8" t="s">
         <v>2176</v>
       </c>
@@ -47844,7 +48928,7 @@
       <c r="I80" s="8"/>
       <c r="J80" s="11"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" ht="24">
       <c r="A81" s="8" t="s">
         <v>2184</v>
       </c>
@@ -47872,7 +48956,7 @@
       <c r="I81" s="8"/>
       <c r="J81" s="11"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" ht="24">
       <c r="A82" s="8" t="s">
         <v>2188</v>
       </c>
@@ -47900,7 +48984,7 @@
       <c r="I82" s="8"/>
       <c r="J82" s="11"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" ht="24">
       <c r="A83" s="8" t="s">
         <v>2191</v>
       </c>
@@ -47956,7 +49040,7 @@
       <c r="I84" s="8"/>
       <c r="J84" s="11"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" ht="24">
       <c r="A85" s="8" t="s">
         <v>2196</v>
       </c>
@@ -47984,7 +49068,7 @@
       <c r="I85" s="8"/>
       <c r="J85" s="11"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" ht="24">
       <c r="A86" s="8" t="s">
         <v>2198</v>
       </c>
@@ -48012,7 +49096,7 @@
       <c r="I86" s="8"/>
       <c r="J86" s="11"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" ht="24">
       <c r="A87" s="8" t="s">
         <v>2200</v>
       </c>
@@ -48040,7 +49124,7 @@
       <c r="I87" s="8"/>
       <c r="J87" s="11"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" ht="24">
       <c r="A88" s="8" t="s">
         <v>2202</v>
       </c>
@@ -48068,7 +49152,7 @@
       <c r="I88" s="8"/>
       <c r="J88" s="11"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" ht="24">
       <c r="A89" s="8" t="s">
         <v>2205</v>
       </c>
@@ -48096,7 +49180,7 @@
       <c r="I89" s="8"/>
       <c r="J89" s="11"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" ht="24">
       <c r="A90" s="8" t="s">
         <v>2208</v>
       </c>
@@ -48124,7 +49208,7 @@
       <c r="I90" s="8"/>
       <c r="J90" s="11"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" ht="24">
       <c r="A91" s="8" t="s">
         <v>2211</v>
       </c>
@@ -48152,7 +49236,7 @@
       <c r="I91" s="8"/>
       <c r="J91" s="11"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" ht="24">
       <c r="A92" s="8" t="s">
         <v>2214</v>
       </c>
@@ -48180,7 +49264,7 @@
       <c r="I92" s="8"/>
       <c r="J92" s="11"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" ht="24">
       <c r="A93" s="8" t="s">
         <v>2217</v>
       </c>
@@ -48208,7 +49292,7 @@
       <c r="I93" s="8"/>
       <c r="J93" s="11"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" ht="24">
       <c r="A94" s="8" t="s">
         <v>2220</v>
       </c>
@@ -48236,7 +49320,7 @@
       <c r="I94" s="8"/>
       <c r="J94" s="11"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" ht="24">
       <c r="A95" s="8" t="s">
         <v>2222</v>
       </c>
@@ -48264,7 +49348,7 @@
       <c r="I95" s="8"/>
       <c r="J95" s="11"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" ht="24">
       <c r="A96" s="8" t="s">
         <v>2224</v>
       </c>
@@ -48292,7 +49376,7 @@
       <c r="I96" s="8"/>
       <c r="J96" s="11"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" ht="24">
       <c r="A97" s="8" t="s">
         <v>2226</v>
       </c>
@@ -48320,7 +49404,7 @@
       <c r="I97" s="8"/>
       <c r="J97" s="11"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" ht="24">
       <c r="A98" s="8" t="s">
         <v>2228</v>
       </c>
@@ -48348,7 +49432,7 @@
       <c r="I98" s="8"/>
       <c r="J98" s="11"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" ht="24">
       <c r="A99" s="8" t="s">
         <v>2230</v>
       </c>
@@ -48404,7 +49488,7 @@
       </c>
       <c r="J100" s="11"/>
     </row>
-    <row r="101" spans="1:10" ht="24">
+    <row r="101" spans="1:10" ht="36">
       <c r="A101" s="8" t="s">
         <v>2237</v>
       </c>
@@ -48460,7 +49544,7 @@
       </c>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="1:10" ht="24">
+    <row r="103" spans="1:10" ht="36">
       <c r="A103" s="8" t="s">
         <v>2245</v>
       </c>
@@ -48488,7 +49572,7 @@
       </c>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="1:10" ht="24">
+    <row r="104" spans="1:10" ht="36">
       <c r="A104" s="8" t="s">
         <v>2249</v>
       </c>
@@ -48516,7 +49600,7 @@
       </c>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="1:10" ht="24">
+    <row r="105" spans="1:10" ht="36">
       <c r="A105" s="8" t="s">
         <v>2253</v>
       </c>
@@ -48544,7 +49628,7 @@
       </c>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="1:10" ht="24">
+    <row r="106" spans="1:10" ht="36">
       <c r="A106" s="8" t="s">
         <v>2257</v>
       </c>
@@ -48628,7 +49712,7 @@
       </c>
       <c r="J108" s="11"/>
     </row>
-    <row r="109" spans="1:10" ht="24">
+    <row r="109" spans="1:10" ht="36">
       <c r="A109" s="8" t="s">
         <v>2269</v>
       </c>
@@ -48778,7 +49862,7 @@
       </c>
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" ht="24">
       <c r="A114" s="8" t="s">
         <v>2295</v>
       </c>
@@ -48971,17 +50055,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="11" customWidth="1"/>
     <col min="2" max="2" width="20" style="12" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="11" customWidth="1"/>
-    <col min="5" max="6" width="25.625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="0.875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="13"/>
+    <col min="3" max="3" width="19.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="11" customWidth="1"/>
+    <col min="5" max="6" width="25.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="0.88671875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="13"/>
     <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25">
+    <row r="1" spans="1:8" ht="20.399999999999999">
       <c r="A1" s="43" t="s">
         <v>33</v>
       </c>
@@ -49183,17 +50267,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="0.875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="13"/>
+    <col min="1" max="1" width="24.109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="0.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="13"/>
     <col min="8" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25">
+    <row r="1" spans="1:7" ht="20.399999999999999">
       <c r="A1" s="43" t="s">
         <v>36</v>
       </c>
@@ -49256,7 +50340,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="24">
       <c r="A5" s="8" t="s">
         <v>2328</v>
       </c>
@@ -49273,7 +50357,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="24">
       <c r="A6" s="8" t="s">
         <v>2332</v>
       </c>
@@ -49290,7 +50374,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="24">
       <c r="A7" s="8" t="s">
         <v>2336</v>
       </c>
@@ -49307,7 +50391,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="24">
       <c r="A8" s="8" t="s">
         <v>2340</v>
       </c>
@@ -49324,7 +50408,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="24">
       <c r="A9" s="8" t="s">
         <v>2344</v>
       </c>
@@ -49341,7 +50425,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="24">
       <c r="A10" s="8" t="s">
         <v>2348</v>
       </c>
@@ -49358,7 +50442,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="24">
       <c r="A11" s="8" t="s">
         <v>2352</v>
       </c>
@@ -49375,7 +50459,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="24">
       <c r="A12" s="8" t="s">
         <v>2356</v>
       </c>
@@ -49392,7 +50476,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="24">
       <c r="A13" s="8" t="s">
         <v>2360</v>
       </c>
@@ -49409,7 +50493,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="24">
       <c r="A14" s="8" t="s">
         <v>2364</v>
       </c>
@@ -49426,7 +50510,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="24">
       <c r="A15" s="8" t="s">
         <v>2368</v>
       </c>
@@ -49443,7 +50527,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="24">
       <c r="A16" s="8" t="s">
         <v>2372</v>
       </c>
@@ -49460,7 +50544,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="24">
       <c r="A17" s="8" t="s">
         <v>2376</v>
       </c>
@@ -49477,7 +50561,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="24">
       <c r="A18" s="8" t="s">
         <v>2380</v>
       </c>
@@ -49494,7 +50578,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="24">
       <c r="A19" s="8" t="s">
         <v>2384</v>
       </c>
@@ -49511,7 +50595,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="24">
       <c r="A20" s="8" t="s">
         <v>2388</v>
       </c>
@@ -49528,7 +50612,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="24">
       <c r="A21" s="8" t="s">
         <v>2392</v>
       </c>
@@ -49545,7 +50629,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="24">
       <c r="A22" s="8" t="s">
         <v>2396</v>
       </c>
@@ -49562,7 +50646,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="24">
       <c r="A23" s="8" t="s">
         <v>2400</v>
       </c>
@@ -49579,7 +50663,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="24">
       <c r="A24" s="8" t="s">
         <v>2404</v>
       </c>
@@ -49596,7 +50680,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="24">
       <c r="A25" s="8" t="s">
         <v>2408</v>
       </c>
@@ -49613,7 +50697,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="24">
       <c r="A26" s="8" t="s">
         <v>2412</v>
       </c>
@@ -49630,7 +50714,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="24">
       <c r="A27" s="8" t="s">
         <v>2416</v>
       </c>
@@ -49647,7 +50731,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="24">
       <c r="A28" s="8" t="s">
         <v>2420</v>
       </c>
@@ -49664,7 +50748,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="24">
       <c r="A29" s="8" t="s">
         <v>2424</v>
       </c>
@@ -49681,7 +50765,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="24">
       <c r="A30" s="8" t="s">
         <v>2428</v>
       </c>
@@ -49698,7 +50782,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="24">
       <c r="A31" s="8" t="s">
         <v>2432</v>
       </c>
